--- a/SSBONDwebsite/media/result/result.xlsx
+++ b/SSBONDwebsite/media/result/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="107">
   <si>
     <t>key</t>
   </si>
@@ -30,283 +30,313 @@
     <t>energy</t>
   </si>
   <si>
-    <t>ALAA818-PHEA1003</t>
-  </si>
-  <si>
-    <t>SERA995-META1000</t>
-  </si>
-  <si>
-    <t>CYSA876-PHEA887</t>
-  </si>
-  <si>
-    <t>LYSA1008-TYRA1040</t>
-  </si>
-  <si>
-    <t>HISA732-ALAA797</t>
-  </si>
-  <si>
-    <t>TYRA879-META934</t>
-  </si>
-  <si>
-    <t>VALA854-TYRA991</t>
-  </si>
-  <si>
-    <t>LYSA705-ALAA716</t>
-  </si>
-  <si>
-    <t>ALAA891-VALA929</t>
-  </si>
-  <si>
-    <t>LEUA873-TYRA953</t>
-  </si>
-  <si>
-    <t>GLNA1005-ALAA1038</t>
-  </si>
-  <si>
-    <t>ALAA891-VALA898</t>
-  </si>
-  <si>
-    <t>TYRA905-THRA922</t>
-  </si>
-  <si>
-    <t>LEUA788-VALA798</t>
-  </si>
-  <si>
-    <t>ILEA937-ARGA960</t>
-  </si>
-  <si>
-    <t>ASNA757-CYSA910</t>
-  </si>
-  <si>
-    <t>CYSA751-THRA755</t>
-  </si>
-  <si>
-    <t>SERA995-GLUA999</t>
-  </si>
-  <si>
-    <t>THRA713-ALAA716</t>
-  </si>
-  <si>
-    <t>PHEA848-TRPA964</t>
-  </si>
-  <si>
-    <t>CYSA701-TYRA719</t>
-  </si>
-  <si>
-    <t>TYRA841-TYRA846</t>
-  </si>
-  <si>
-    <t>ILEA859-VALA893</t>
-  </si>
-  <si>
-    <t>TYRA846-TRPA964</t>
-  </si>
-  <si>
-    <t>ALAA791-PHEA816</t>
-  </si>
-  <si>
-    <t>THRA808-HISA833</t>
-  </si>
-  <si>
-    <t>THRA813-PHEA816</t>
-  </si>
-  <si>
-    <t>META900-LYSA904</t>
-  </si>
-  <si>
-    <t>ALAA862-ILEA890</t>
-  </si>
-  <si>
-    <t>HISA793-ALAA797</t>
-  </si>
-  <si>
-    <t>META900-TYRA905</t>
-  </si>
-  <si>
-    <t>ILEA913-ILEA916</t>
-  </si>
-  <si>
-    <t>PHEA733-THRA755</t>
-  </si>
-  <si>
-    <t>ASNA1017-SERA1023</t>
-  </si>
-  <si>
-    <t>LYSA897-THRA921</t>
-  </si>
-  <si>
-    <t>THRA813-ASPA838</t>
-  </si>
-  <si>
-    <t>CYSA701-ALAA716</t>
-  </si>
-  <si>
-    <t>TRPA964-ASNA968</t>
-  </si>
-  <si>
-    <t>ALAA818-GLUA999</t>
-  </si>
-  <si>
-    <t>LEUA758-CYSA910</t>
-  </si>
-  <si>
-    <t>ILEA754-ASNA912</t>
-  </si>
-  <si>
-    <t>HISA734-SERA880</t>
-  </si>
-  <si>
-    <t>CYSA949-LYSA952</t>
-  </si>
-  <si>
-    <t>ALAA791-META799</t>
-  </si>
-  <si>
-    <t>THRA839-CYSA842</t>
-  </si>
-  <si>
-    <t>LEUA932-GLNA936</t>
-  </si>
-  <si>
-    <t>ASPA815-ASPA838</t>
-  </si>
-  <si>
-    <t>ARGA817-SERA995</t>
-  </si>
-  <si>
-    <t>THRA713-CYSA725</t>
-  </si>
-  <si>
-    <t>SERA896-LEUA928</t>
-  </si>
-  <si>
-    <t>PHEA939-ILEA984</t>
-  </si>
-  <si>
-    <t>ASPA715-THRA731</t>
-  </si>
-  <si>
-    <t>SERA896-SERA927</t>
-  </si>
-  <si>
-    <t>LEUA741-PHEA745</t>
-  </si>
-  <si>
-    <t>TYRA704-ILEA1013</t>
-  </si>
-  <si>
-    <t>CYSA794-ILEA881</t>
-  </si>
-  <si>
-    <t>LEUA730-TYRA738</t>
-  </si>
-  <si>
-    <t>LEUA811-VALA832</t>
-  </si>
-  <si>
-    <t>THRA980-SERA985</t>
-  </si>
-  <si>
-    <t>TYRA704-THRA1015</t>
-  </si>
-  <si>
-    <t>THRA971-ASPA975</t>
-  </si>
-  <si>
-    <t>ALAA818-SERA995</t>
-  </si>
-  <si>
-    <t>PHEA863-VALA893</t>
-  </si>
-  <si>
-    <t>TYRA836-THRA1015</t>
-  </si>
-  <si>
-    <t>TYRA846-TYRA997</t>
-  </si>
-  <si>
-    <t>PHEA717-LEUA741</t>
-  </si>
-  <si>
-    <t>SERA896-VALA929</t>
-  </si>
-  <si>
-    <t>VALA866-ALAA872</t>
-  </si>
-  <si>
-    <t>THRA971-VALA976</t>
-  </si>
-  <si>
-    <t>CYSA842-META1027</t>
-  </si>
-  <si>
-    <t>HISA793-ASPA815</t>
-  </si>
-  <si>
-    <t>LEUA730-CYSA751</t>
-  </si>
-  <si>
-    <t>THRA1020-SERA1023</t>
-  </si>
-  <si>
-    <t>PHEA848-ASNA968</t>
-  </si>
-  <si>
-    <t>ASNA869-ALAA872</t>
-  </si>
-  <si>
-    <t>META900-LEUA931</t>
-  </si>
-  <si>
-    <t>GLNA902-THRA922</t>
-  </si>
-  <si>
-    <t>ASPA923-SERA926</t>
-  </si>
-  <si>
-    <t>PHEA848-SERA996</t>
-  </si>
-  <si>
-    <t>HISA793-PHEA816</t>
-  </si>
-  <si>
-    <t>SERA996-GLUA999</t>
-  </si>
-  <si>
-    <t>GLNA1005-TRPA1034</t>
-  </si>
-  <si>
-    <t>HISA793-GLUA993</t>
-  </si>
-  <si>
-    <t>VALA722-CYSA725</t>
-  </si>
-  <si>
-    <t>GLUA915-SERA918</t>
-  </si>
-  <si>
-    <t>ALAA791-HISA793</t>
-  </si>
-  <si>
-    <t>ALAA818-META1000</t>
-  </si>
-  <si>
-    <t>SERA850-GLUA853</t>
-  </si>
-  <si>
-    <t>ALAA858-ILEA890</t>
-  </si>
-  <si>
-    <t>HISA871-TYRA953</t>
-  </si>
-  <si>
-    <t>LEUA759-VALA765</t>
-  </si>
-  <si>
-    <t>CYSA725-TYRA728</t>
-  </si>
-  <si>
-    <t>SERA752-THRA755</t>
+    <t>PHEA42-ALAA261</t>
+  </si>
+  <si>
+    <t>LEUA53-GLNA109</t>
+  </si>
+  <si>
+    <t>LEUA22-ALAA69</t>
+  </si>
+  <si>
+    <t>LEUA203-ALAA230</t>
+  </si>
+  <si>
+    <t>ALAA44-TYRA255</t>
+  </si>
+  <si>
+    <t>LEUA183-ALAA252</t>
+  </si>
+  <si>
+    <t>TYRA96-TYRA140</t>
+  </si>
+  <si>
+    <t>ALAA131-META167</t>
+  </si>
+  <si>
+    <t>LEUA33-META58</t>
+  </si>
+  <si>
+    <t>VALA210-ARGA223</t>
+  </si>
+  <si>
+    <t>TYRA10-PHEA15</t>
+  </si>
+  <si>
+    <t>ALAA200-SERA234</t>
+  </si>
+  <si>
+    <t>ALAA44-SERA250</t>
+  </si>
+  <si>
+    <t>PHEA8-ALAA217</t>
+  </si>
+  <si>
+    <t>ALAA50-ILEA112</t>
+  </si>
+  <si>
+    <t>META135-PHEA163</t>
+  </si>
+  <si>
+    <t>ALAA207-LEUA226</t>
+  </si>
+  <si>
+    <t>THRA138-SERA160</t>
+  </si>
+  <si>
+    <t>ALAA200-SERA233</t>
+  </si>
+  <si>
+    <t>ALAA75-PHEA90</t>
+  </si>
+  <si>
+    <t>LEUA116-LEUA121</t>
+  </si>
+  <si>
+    <t>SERA250-ALAA258</t>
+  </si>
+  <si>
+    <t>SERA40-THRA51</t>
+  </si>
+  <si>
+    <t>TYRA47-ALAA246</t>
+  </si>
+  <si>
+    <t>ASNA3-SERA91</t>
+  </si>
+  <si>
+    <t>ALAA251-GLNA259</t>
+  </si>
+  <si>
+    <t>PHEA36-CYSA55</t>
+  </si>
+  <si>
+    <t>ASPA9-SERA82</t>
+  </si>
+  <si>
+    <t>ALAA251-ALAA258</t>
+  </si>
+  <si>
+    <t>ALAA50-GLNA109</t>
+  </si>
+  <si>
+    <t>VALA57-CYSA105</t>
+  </si>
+  <si>
+    <t>VALA26-ASNA66</t>
+  </si>
+  <si>
+    <t>META71-PHEA90</t>
+  </si>
+  <si>
+    <t>VALA43-ARGA48</t>
+  </si>
+  <si>
+    <t>META182-ASPA187</t>
+  </si>
+  <si>
+    <t>LEUA21-THRA228</t>
+  </si>
+  <si>
+    <t>THRA186-ILEA245</t>
+  </si>
+  <si>
+    <t>META135-PHEA164</t>
+  </si>
+  <si>
+    <t>TYRA145-LEUA153</t>
+  </si>
+  <si>
+    <t>TYRA10-GLNA14</t>
+  </si>
+  <si>
+    <t>THRA51-THRA243</t>
+  </si>
+  <si>
+    <t>TYRA76-TYRA83</t>
+  </si>
+  <si>
+    <t>VALA26-LEUA65</t>
+  </si>
+  <si>
+    <t>ALAA32-VALA236</t>
+  </si>
+  <si>
+    <t>PHEA36-SERA54</t>
+  </si>
+  <si>
+    <t>ARGA179-ASPA187</t>
+  </si>
+  <si>
+    <t>ALAA207-PHEA227</t>
+  </si>
+  <si>
+    <t>GLUA5-VALA220</t>
+  </si>
+  <si>
+    <t>ILEA150-ALAA212</t>
+  </si>
+  <si>
+    <t>THRA23-ALAA69</t>
+  </si>
+  <si>
+    <t>GLUA146-LEUA153</t>
+  </si>
+  <si>
+    <t>ALAA207-ARGA223</t>
+  </si>
+  <si>
+    <t>ILEA18-GLNA224</t>
+  </si>
+  <si>
+    <t>GLNA14-VALA221</t>
+  </si>
+  <si>
+    <t>TYRA204-ALAA230</t>
+  </si>
+  <si>
+    <t>LEUA183-GLNA249</t>
+  </si>
+  <si>
+    <t>META100-ILEA136</t>
+  </si>
+  <si>
+    <t>TYRA10-ALAA217</t>
+  </si>
+  <si>
+    <t>HISA29-META58</t>
+  </si>
+  <si>
+    <t>LEUA37-CYSA55</t>
+  </si>
+  <si>
+    <t>ILEA4-VALA147</t>
+  </si>
+  <si>
+    <t>TYRA145-GLNA152</t>
+  </si>
+  <si>
+    <t>VALA57-THRA102</t>
+  </si>
+  <si>
+    <t>VALA113-ILEA245</t>
+  </si>
+  <si>
+    <t>VALA43-SERA250</t>
+  </si>
+  <si>
+    <t>LEUA53-CYSA105</t>
+  </si>
+  <si>
+    <t>THRA138-VALA159</t>
+  </si>
+  <si>
+    <t>ALAA132-META167</t>
+  </si>
+  <si>
+    <t>VALA113-ALAA246</t>
+  </si>
+  <si>
+    <t>ALAA75-THRA89</t>
+  </si>
+  <si>
+    <t>ILEA247-ALAA258</t>
+  </si>
+  <si>
+    <t>ALAA77-GLNA86</t>
+  </si>
+  <si>
+    <t>PHEA42-ALAA258</t>
+  </si>
+  <si>
+    <t>LEUA114-ASNA178</t>
+  </si>
+  <si>
+    <t>ASPA149-GLNA152</t>
+  </si>
+  <si>
+    <t>TRPA201-SERA234</t>
+  </si>
+  <si>
+    <t>LEUA111-LEUA121</t>
+  </si>
+  <si>
+    <t>LEUA108-ALAA125</t>
+  </si>
+  <si>
+    <t>ASPA9-GLNA84</t>
+  </si>
+  <si>
+    <t>TRPA72-PHEA90</t>
+  </si>
+  <si>
+    <t>LEUA203-LEUA226</t>
+  </si>
+  <si>
+    <t>HISA29-VALA236</t>
+  </si>
+  <si>
+    <t>ILEA64-ARGA95</t>
+  </si>
+  <si>
+    <t>ALAA200-ALAA230</t>
+  </si>
+  <si>
+    <t>TRPA99-ILEA103</t>
+  </si>
+  <si>
+    <t>ALAA131-PHEA163</t>
+  </si>
+  <si>
+    <t>META182-THRA186</t>
+  </si>
+  <si>
+    <t>VALA43-ALAA246</t>
+  </si>
+  <si>
+    <t>SERA6-LEUA85</t>
+  </si>
+  <si>
+    <t>LEUA116-GLUA120</t>
+  </si>
+  <si>
+    <t>LEUA22-LEUA65</t>
+  </si>
+  <si>
+    <t>TYRA255-ALAA258</t>
+  </si>
+  <si>
+    <t>VALA79-GLNA84</t>
+  </si>
+  <si>
+    <t>VALA43-ILEA247</t>
+  </si>
+  <si>
+    <t>THRA186-THRA189</t>
+  </si>
+  <si>
+    <t>SERA250-TYRA255</t>
+  </si>
+  <si>
+    <t>TYRA96-ILEA136</t>
+  </si>
+  <si>
+    <t>THRA138-TRPA156</t>
+  </si>
+  <si>
+    <t>META135-SERA160</t>
+  </si>
+  <si>
+    <t>ASPA87-THRA89</t>
+  </si>
+  <si>
+    <t>LYSA2-VALA147</t>
+  </si>
+  <si>
+    <t>GLNA143-GLUA146</t>
+  </si>
+  <si>
+    <t>TYRA47-VALA113</t>
   </si>
 </sst>
 </file>
@@ -664,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -692,13 +722,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="D2">
-        <v>-67.20310000000001</v>
+        <v>-69.30710000000001</v>
       </c>
       <c r="E2">
-        <v>0.5253</v>
+        <v>0.9801</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -709,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.996</v>
+        <v>0.997</v>
       </c>
       <c r="D3">
-        <v>-22.1713</v>
+        <v>-52.3002</v>
       </c>
       <c r="E3">
-        <v>-1.4253</v>
+        <v>-1.8378</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -726,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.995</v>
+        <v>0.997</v>
       </c>
       <c r="D4">
-        <v>-32.0042</v>
+        <v>-50.1152</v>
       </c>
       <c r="E4">
-        <v>-1.1976</v>
+        <v>1.2233</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -743,13 +773,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.994</v>
+        <v>0.997</v>
       </c>
       <c r="D5">
-        <v>-45.3212</v>
+        <v>-43.2024</v>
       </c>
       <c r="E5">
-        <v>-0.9539</v>
+        <v>1.8369</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -760,13 +790,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.99</v>
+        <v>0.996</v>
       </c>
       <c r="D6">
-        <v>-54.1588</v>
+        <v>-68.843</v>
       </c>
       <c r="E6">
-        <v>-0.2535</v>
+        <v>-0.0369</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -777,13 +807,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.989</v>
+        <v>0.996</v>
       </c>
       <c r="D7">
-        <v>-52.0755</v>
+        <v>-54.9035</v>
       </c>
       <c r="E7">
-        <v>-0.0702</v>
+        <v>1.2657</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -794,13 +824,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.988</v>
+        <v>0.996</v>
       </c>
       <c r="D8">
-        <v>-63.4571</v>
+        <v>-49.2926</v>
       </c>
       <c r="E8">
-        <v>-0.0389</v>
+        <v>-0.5886</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -811,13 +841,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.988</v>
+        <v>0.996</v>
       </c>
       <c r="D9">
-        <v>-32.0042</v>
+        <v>-46.7901</v>
       </c>
       <c r="E9">
-        <v>-3.0771</v>
+        <v>1.1875</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -828,13 +858,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.985</v>
+        <v>0.996</v>
       </c>
       <c r="D10">
-        <v>-47.4643</v>
+        <v>-42.2426</v>
       </c>
       <c r="E10">
-        <v>0.1429</v>
+        <v>-0.4372</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -845,81 +875,81 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.983</v>
+        <v>0.996</v>
       </c>
       <c r="D11">
-        <v>-56.7483</v>
+        <v>-34.0875</v>
       </c>
       <c r="E11">
-        <v>-1.0156</v>
+        <v>-0.2538</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.981</v>
+        <v>0.995</v>
       </c>
       <c r="D12">
-        <v>-45.7049</v>
+        <v>-22.1713</v>
       </c>
       <c r="E12">
-        <v>-0.4617</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.979</v>
+        <v>0.995</v>
       </c>
       <c r="D13">
-        <v>-26.3674</v>
+        <v>-46.0772</v>
       </c>
       <c r="E13">
-        <v>0.4105</v>
+        <v>-1.1982</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.977</v>
+        <v>0.995</v>
       </c>
       <c r="D14">
-        <v>-37.433</v>
+        <v>-68.54389999999999</v>
       </c>
       <c r="E14">
-        <v>0.29</v>
+        <v>-0.5306999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>0.977</v>
+        <v>0.995</v>
       </c>
       <c r="D15">
-        <v>-30.8155</v>
+        <v>-68.7243</v>
       </c>
       <c r="E15">
-        <v>0.1291</v>
+        <v>0.4682</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -930,13 +960,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>0.975</v>
+        <v>0.994</v>
       </c>
       <c r="D16">
-        <v>-41.2027</v>
+        <v>-53.5695</v>
       </c>
       <c r="E16">
-        <v>-1.1123</v>
+        <v>1.4328</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -947,13 +977,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>0.974</v>
+        <v>0.994</v>
       </c>
       <c r="D17">
-        <v>-64.83459999999999</v>
+        <v>-43.6559</v>
       </c>
       <c r="E17">
-        <v>-0.3354</v>
+        <v>-0.3515</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -964,13 +994,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0.974</v>
+        <v>0.993</v>
       </c>
       <c r="D18">
-        <v>-19.3885</v>
+        <v>-38.8201</v>
       </c>
       <c r="E18">
-        <v>-0.019</v>
+        <v>0.2346</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -981,13 +1011,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>0.973</v>
+        <v>0.992</v>
       </c>
       <c r="D19">
-        <v>-19.3885</v>
+        <v>-40.6484</v>
       </c>
       <c r="E19">
-        <v>-1.0585</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -998,13 +1028,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>0.967</v>
+        <v>0.991</v>
       </c>
       <c r="D20">
-        <v>-15.8008</v>
+        <v>-45.7049</v>
       </c>
       <c r="E20">
-        <v>-3.1338</v>
+        <v>-1.7996</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1015,13 +1045,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>0.966</v>
+        <v>0.99</v>
       </c>
       <c r="D21">
-        <v>-61.382</v>
+        <v>-35.8721</v>
       </c>
       <c r="E21">
-        <v>-1.1656</v>
+        <v>-0.6646</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1032,13 +1062,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>0.964</v>
+        <v>0.99</v>
       </c>
       <c r="D22">
-        <v>-38.1458</v>
+        <v>-22.1713</v>
       </c>
       <c r="E22">
-        <v>-0.9802</v>
+        <v>-0.9806</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1049,47 +1079,47 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>0.963</v>
+        <v>0.989</v>
       </c>
       <c r="D23">
-        <v>-22.1713</v>
+        <v>-28.0327</v>
       </c>
       <c r="E23">
-        <v>-0.167</v>
+        <v>0.2924</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24">
-        <v>0.958</v>
+        <v>0.984</v>
       </c>
       <c r="D24">
-        <v>-46.0772</v>
+        <v>-32.0042</v>
       </c>
       <c r="E24">
-        <v>-0.4104</v>
+        <v>0.2829</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25">
-        <v>0.958</v>
+        <v>0.982</v>
       </c>
       <c r="D25">
-        <v>-61.5952</v>
+        <v>-68.11279999999999</v>
       </c>
       <c r="E25">
-        <v>-0.7328</v>
+        <v>0.9919</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1100,13 +1130,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>0.957</v>
+        <v>0.982</v>
       </c>
       <c r="D26">
-        <v>-42.2426</v>
+        <v>-57.9369</v>
       </c>
       <c r="E26">
-        <v>0.4894</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1117,13 +1147,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>0.95</v>
+        <v>0.979</v>
       </c>
       <c r="D27">
-        <v>-42.2426</v>
+        <v>-28.0327</v>
       </c>
       <c r="E27">
-        <v>0.2729</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1134,13 +1164,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>0.9409999999999999</v>
+        <v>0.978</v>
       </c>
       <c r="D28">
-        <v>-15.8008</v>
+        <v>-38.8201</v>
       </c>
       <c r="E28">
-        <v>0.3959</v>
+        <v>-0.2533</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1151,13 +1181,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>0.926</v>
+        <v>0.976</v>
       </c>
       <c r="D29">
-        <v>-19.3885</v>
+        <v>-55.6063</v>
       </c>
       <c r="E29">
-        <v>-1.8017</v>
+        <v>-0.579</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1168,13 +1198,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>0.924</v>
+        <v>0.976</v>
       </c>
       <c r="D30">
-        <v>-43.6559</v>
+        <v>-26.3674</v>
       </c>
       <c r="E30">
-        <v>0.9703000000000001</v>
+        <v>2.4935</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1185,13 +1215,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>0.922</v>
+        <v>0.974</v>
       </c>
       <c r="D31">
-        <v>-19.3885</v>
+        <v>-52.951</v>
       </c>
       <c r="E31">
-        <v>-0.5817</v>
+        <v>-0.0655</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1202,13 +1232,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>0.921</v>
+        <v>0.972</v>
       </c>
       <c r="D32">
-        <v>-22.1713</v>
+        <v>-50.3777</v>
       </c>
       <c r="E32">
-        <v>0.07729999999999999</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1219,13 +1249,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>0.919</v>
+        <v>0.971</v>
       </c>
       <c r="D33">
-        <v>-15.8008</v>
+        <v>-48.104</v>
       </c>
       <c r="E33">
-        <v>1.4198</v>
+        <v>-0.0977</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1236,30 +1266,30 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>0.906</v>
+        <v>0.967</v>
       </c>
       <c r="D34">
-        <v>-40.6484</v>
+        <v>-38.8201</v>
       </c>
       <c r="E34">
-        <v>0.1046</v>
+        <v>-0.8646</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
       <c r="C35">
-        <v>0.905</v>
+        <v>0.967</v>
       </c>
       <c r="D35">
-        <v>-24.445</v>
+        <v>-22.1713</v>
       </c>
       <c r="E35">
-        <v>-0.6435999999999999</v>
+        <v>-0.4393</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1270,30 +1300,30 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>0.905</v>
+        <v>0.966</v>
       </c>
       <c r="D36">
-        <v>-41.7335</v>
+        <v>-22.1713</v>
       </c>
       <c r="E36">
-        <v>0.0001</v>
+        <v>-0.0987</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
       <c r="C37">
-        <v>0.905</v>
+        <v>0.964</v>
       </c>
       <c r="D37">
-        <v>-42.2426</v>
+        <v>-68.60429999999999</v>
       </c>
       <c r="E37">
-        <v>-0.3666</v>
+        <v>-0.3456</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1304,13 +1334,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>0.904</v>
+        <v>0.964</v>
       </c>
       <c r="D38">
-        <v>-35.8721</v>
+        <v>-52.951</v>
       </c>
       <c r="E38">
-        <v>-1.7692</v>
+        <v>0.2835</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1321,13 +1351,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>0.894</v>
+        <v>0.963</v>
       </c>
       <c r="D39">
-        <v>-19.3885</v>
+        <v>-44.0935</v>
       </c>
       <c r="E39">
-        <v>-0.7154</v>
+        <v>-0.8662</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1338,13 +1368,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>0.888</v>
+        <v>0.96</v>
       </c>
       <c r="D40">
-        <v>-66.93049999999999</v>
+        <v>-28.0327</v>
       </c>
       <c r="E40">
-        <v>-0.4769</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1355,13 +1385,13 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>0.887</v>
+        <v>0.95</v>
       </c>
       <c r="D41">
-        <v>-64.75279999999999</v>
+        <v>-19.3885</v>
       </c>
       <c r="E41">
-        <v>-0.6217</v>
+        <v>-1.1103</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1372,13 +1402,13 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>0.875</v>
+        <v>0.947</v>
       </c>
       <c r="D42">
-        <v>-65.23560000000001</v>
+        <v>-67.6662</v>
       </c>
       <c r="E42">
-        <v>-0.2072</v>
+        <v>-0.4722</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1389,13 +1419,13 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>0.872</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D43">
-        <v>-64.25060000000001</v>
+        <v>-26.3674</v>
       </c>
       <c r="E43">
-        <v>-0.5258</v>
+        <v>0.2135</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1406,13 +1436,13 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>0.868</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D44">
-        <v>-15.8008</v>
+        <v>-47.7883</v>
       </c>
       <c r="E44">
-        <v>-1.7615</v>
+        <v>0.8186</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1423,13 +1453,13 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>0.863</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D45">
-        <v>-28.0327</v>
+        <v>-68.42230000000001</v>
       </c>
       <c r="E45">
-        <v>0.4029</v>
+        <v>-0.0221</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1440,13 +1470,13 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>0.859</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D46">
-        <v>-15.8008</v>
+        <v>-38.1458</v>
       </c>
       <c r="E46">
-        <v>-1.2417</v>
+        <v>-0.7059</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1457,13 +1487,13 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>0.853</v>
+        <v>0.93</v>
       </c>
       <c r="D47">
-        <v>-19.3885</v>
+        <v>-28.0327</v>
       </c>
       <c r="E47">
-        <v>-0.6372</v>
+        <v>-1.6034</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1474,13 +1504,13 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>0.841</v>
+        <v>0.928</v>
       </c>
       <c r="D48">
-        <v>-41.2027</v>
+        <v>-39.4598</v>
       </c>
       <c r="E48">
-        <v>0.3263</v>
+        <v>-0.6381</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1491,13 +1521,13 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>0.833</v>
+        <v>0.918</v>
       </c>
       <c r="D49">
-        <v>-66.72199999999999</v>
+        <v>-69.0772</v>
       </c>
       <c r="E49">
-        <v>-1.3192</v>
+        <v>-1.8216</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1508,13 +1538,13 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>0.8149999999999999</v>
+        <v>0.916</v>
       </c>
       <c r="D50">
-        <v>-33.0893</v>
+        <v>-53.5695</v>
       </c>
       <c r="E50">
-        <v>-1.3646</v>
+        <v>-0.2667</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1525,47 +1555,47 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>0.8129999999999999</v>
+        <v>0.906</v>
       </c>
       <c r="D51">
-        <v>-45.3212</v>
+        <v>-49.847</v>
       </c>
       <c r="E51">
-        <v>-0.6707</v>
+        <v>1.2245</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
       </c>
       <c r="C52">
-        <v>0.8110000000000001</v>
+        <v>0.903</v>
       </c>
       <c r="D52">
-        <v>-49.5729</v>
+        <v>-26.3674</v>
       </c>
       <c r="E52">
-        <v>0.2282</v>
+        <v>-1.3212</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
       <c r="C53">
-        <v>0.8110000000000001</v>
+        <v>0.903</v>
       </c>
       <c r="D53">
         <v>-36.677</v>
       </c>
       <c r="E53">
-        <v>0.27</v>
+        <v>-0.9811</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1576,13 +1606,13 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>0.8100000000000001</v>
+        <v>0.898</v>
       </c>
       <c r="D54">
-        <v>-44.9253</v>
+        <v>-68.54389999999999</v>
       </c>
       <c r="E54">
-        <v>-1.5877</v>
+        <v>-0.9188</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1593,13 +1623,13 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>0.8070000000000001</v>
+        <v>0.892</v>
       </c>
       <c r="D55">
-        <v>-19.3885</v>
+        <v>-68.60429999999999</v>
       </c>
       <c r="E55">
-        <v>1.0888</v>
+        <v>-0.3501</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1610,13 +1640,13 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>0.802</v>
+        <v>0.891</v>
       </c>
       <c r="D56">
-        <v>-73.6005</v>
+        <v>-42.7317</v>
       </c>
       <c r="E56">
-        <v>-0.8807</v>
+        <v>1.4545</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1627,13 +1657,13 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>0.8</v>
+        <v>0.876</v>
       </c>
       <c r="D57">
-        <v>-57.7943</v>
+        <v>-54.3492</v>
       </c>
       <c r="E57">
-        <v>0.646</v>
+        <v>-1.2184</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1644,13 +1674,13 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>0.798</v>
+        <v>0.875</v>
       </c>
       <c r="D58">
-        <v>-28.0327</v>
+        <v>-46.7901</v>
       </c>
       <c r="E58">
-        <v>-1.0339</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1661,13 +1691,13 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>0.797</v>
+        <v>0.874</v>
       </c>
       <c r="D59">
-        <v>-40.0682</v>
+        <v>-68.60429999999999</v>
       </c>
       <c r="E59">
-        <v>0.3702</v>
+        <v>0.3975</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1678,13 +1708,13 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>0.796</v>
+        <v>0.872</v>
       </c>
       <c r="D60">
-        <v>-22.1713</v>
+        <v>-44.0935</v>
       </c>
       <c r="E60">
-        <v>0.9021</v>
+        <v>-1.9195</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1695,13 +1725,13 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>0.787</v>
+        <v>0.872</v>
       </c>
       <c r="D61">
-        <v>-73.681</v>
+        <v>-38.1458</v>
       </c>
       <c r="E61">
-        <v>-0.434</v>
+        <v>-0.3218</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1712,13 +1742,13 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>0.787</v>
+        <v>0.87</v>
       </c>
       <c r="D62">
-        <v>-19.3885</v>
+        <v>-63.9916</v>
       </c>
       <c r="E62">
-        <v>-0.8561</v>
+        <v>0.3174</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1729,13 +1759,13 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>0.785</v>
+        <v>0.867</v>
       </c>
       <c r="D63">
-        <v>-66.65179999999999</v>
+        <v>-26.3674</v>
       </c>
       <c r="E63">
-        <v>-1.0577</v>
+        <v>-1.3472</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1746,13 +1776,13 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>0.781</v>
+        <v>0.865</v>
       </c>
       <c r="D64">
-        <v>-44.5163</v>
+        <v>-49.5729</v>
       </c>
       <c r="E64">
-        <v>0.5094</v>
+        <v>-0.6631</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1763,13 +1793,13 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>0.779</v>
+        <v>0.861</v>
       </c>
       <c r="D65">
-        <v>-66.7919</v>
+        <v>-62.9934</v>
       </c>
       <c r="E65">
-        <v>0.3723</v>
+        <v>0.06809999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1780,13 +1810,13 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>0.775</v>
+        <v>0.853</v>
       </c>
       <c r="D66">
-        <v>-64.6705</v>
+        <v>-68.60429999999999</v>
       </c>
       <c r="E66">
-        <v>-0.2922</v>
+        <v>-0.7386</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1797,13 +1827,13 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>0.766</v>
+        <v>0.85</v>
       </c>
       <c r="D67">
-        <v>-41.7335</v>
+        <v>-51.376</v>
       </c>
       <c r="E67">
-        <v>1.0897</v>
+        <v>-0.9032</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1814,13 +1844,13 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>0.746</v>
+        <v>0.846</v>
       </c>
       <c r="D68">
-        <v>-45.7049</v>
+        <v>-40.0682</v>
       </c>
       <c r="E68">
-        <v>-0.41</v>
+        <v>1.2103</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1831,13 +1861,13 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>0.721</v>
+        <v>0.843</v>
       </c>
       <c r="D69">
-        <v>-24.445</v>
+        <v>-46.4387</v>
       </c>
       <c r="E69">
-        <v>0.0176</v>
+        <v>0.9071</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1848,13 +1878,13 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>0.696</v>
+        <v>0.829</v>
       </c>
       <c r="D70">
-        <v>-22.1713</v>
+        <v>-63.0875</v>
       </c>
       <c r="E70">
-        <v>0.1039</v>
+        <v>0.5179</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1865,13 +1895,13 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>0.681</v>
+        <v>0.827</v>
       </c>
       <c r="D71">
-        <v>-67.20310000000001</v>
+        <v>-35.0117</v>
       </c>
       <c r="E71">
-        <v>-1.2736</v>
+        <v>-0.0796</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1882,13 +1912,13 @@
         <v>74</v>
       </c>
       <c r="C72">
-        <v>0.666</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="D72">
-        <v>-40.6484</v>
+        <v>-32.0042</v>
       </c>
       <c r="E72">
-        <v>0.6807</v>
+        <v>0.9653</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1899,13 +1929,13 @@
         <v>75</v>
       </c>
       <c r="C73">
-        <v>0.665</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D73">
-        <v>-40.0682</v>
+        <v>-29.5016</v>
       </c>
       <c r="E73">
-        <v>-0.6543</v>
+        <v>-0.5495</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1916,13 +1946,13 @@
         <v>76</v>
       </c>
       <c r="C74">
-        <v>0.664</v>
+        <v>0.765</v>
       </c>
       <c r="D74">
-        <v>-15.8008</v>
+        <v>-69.13509999999999</v>
       </c>
       <c r="E74">
-        <v>-0.0929</v>
+        <v>1.128</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1933,13 +1963,13 @@
         <v>77</v>
       </c>
       <c r="C75">
-        <v>0.654</v>
+        <v>0.763</v>
       </c>
       <c r="D75">
-        <v>-61.8048</v>
+        <v>-53.9654</v>
       </c>
       <c r="E75">
-        <v>-0.6723</v>
+        <v>-0.8241000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1950,13 +1980,13 @@
         <v>78</v>
       </c>
       <c r="C76">
-        <v>0.651</v>
+        <v>0.761</v>
       </c>
       <c r="D76">
         <v>-15.8008</v>
       </c>
       <c r="E76">
-        <v>-0.193</v>
+        <v>-1.3759</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1967,13 +1997,13 @@
         <v>79</v>
       </c>
       <c r="C77">
-        <v>0.632</v>
+        <v>0.745</v>
       </c>
       <c r="D77">
-        <v>-44.9253</v>
+        <v>-45.7049</v>
       </c>
       <c r="E77">
-        <v>-0.1579</v>
+        <v>-1.6063</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1984,47 +2014,47 @@
         <v>80</v>
       </c>
       <c r="C78">
-        <v>0.631</v>
+        <v>0.723</v>
       </c>
       <c r="D78">
-        <v>-39.4598</v>
+        <v>-30.8155</v>
       </c>
       <c r="E78">
-        <v>-0.0279</v>
+        <v>0.5444</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>81</v>
       </c>
       <c r="C79">
-        <v>0.624</v>
+        <v>0.707</v>
       </c>
       <c r="D79">
-        <v>-15.8008</v>
+        <v>-37.433</v>
       </c>
       <c r="E79">
-        <v>-0.2619</v>
+        <v>1.5952</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
         <v>82</v>
       </c>
       <c r="C80">
-        <v>0.616</v>
+        <v>0.707</v>
       </c>
       <c r="D80">
-        <v>-64.42019999999999</v>
+        <v>-55.9434</v>
       </c>
       <c r="E80">
-        <v>-0.3498</v>
+        <v>-0.8386</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2035,13 +2065,13 @@
         <v>83</v>
       </c>
       <c r="C81">
-        <v>0.616</v>
+        <v>0.7</v>
       </c>
       <c r="D81">
-        <v>-41.2027</v>
+        <v>-38.1458</v>
       </c>
       <c r="E81">
-        <v>0.1985</v>
+        <v>-0.9467</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2052,13 +2082,13 @@
         <v>84</v>
       </c>
       <c r="C82">
-        <v>0.609</v>
+        <v>0.696</v>
       </c>
       <c r="D82">
-        <v>-15.8008</v>
+        <v>-41.2027</v>
       </c>
       <c r="E82">
-        <v>-0.0274</v>
+        <v>1.1109</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2069,13 +2099,13 @@
         <v>85</v>
       </c>
       <c r="C83">
-        <v>0.601</v>
+        <v>0.664</v>
       </c>
       <c r="D83">
-        <v>-44.0935</v>
+        <v>-68.60429999999999</v>
       </c>
       <c r="E83">
-        <v>0.0569</v>
+        <v>-2.3351</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2086,13 +2116,13 @@
         <v>86</v>
       </c>
       <c r="C84">
-        <v>0.599</v>
+        <v>0.66</v>
       </c>
       <c r="D84">
-        <v>-68.17529999999999</v>
+        <v>-44.9253</v>
       </c>
       <c r="E84">
-        <v>-0.6919999999999999</v>
+        <v>-1.5673</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2103,13 +2133,13 @@
         <v>87</v>
       </c>
       <c r="C85">
-        <v>0.593</v>
+        <v>0.645</v>
       </c>
       <c r="D85">
-        <v>-15.8008</v>
+        <v>-44.5163</v>
       </c>
       <c r="E85">
-        <v>-0.7459</v>
+        <v>0.5432</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2120,13 +2150,13 @@
         <v>88</v>
       </c>
       <c r="C86">
-        <v>0.588</v>
+        <v>0.644</v>
       </c>
       <c r="D86">
-        <v>-15.8008</v>
+        <v>-19.3885</v>
       </c>
       <c r="E86">
-        <v>0.2914</v>
+        <v>0.2708</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2137,13 +2167,13 @@
         <v>89</v>
       </c>
       <c r="C87">
-        <v>0.588</v>
+        <v>0.639</v>
       </c>
       <c r="D87">
-        <v>-10.7442</v>
+        <v>-45.3212</v>
       </c>
       <c r="E87">
-        <v>0.08119999999999999</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2154,13 +2184,13 @@
         <v>90</v>
       </c>
       <c r="C88">
-        <v>0.576</v>
+        <v>0.639</v>
       </c>
       <c r="D88">
-        <v>-66.9992</v>
+        <v>-19.3885</v>
       </c>
       <c r="E88">
-        <v>-0.8437</v>
+        <v>0.4113</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2171,13 +2201,13 @@
         <v>91</v>
       </c>
       <c r="C89">
-        <v>0.5679999999999999</v>
+        <v>0.634</v>
       </c>
       <c r="D89">
-        <v>-15.8008</v>
+        <v>-68.361</v>
       </c>
       <c r="E89">
-        <v>-0.1248</v>
+        <v>0.9369</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2188,13 +2218,13 @@
         <v>92</v>
       </c>
       <c r="C90">
-        <v>0.534</v>
+        <v>0.631</v>
       </c>
       <c r="D90">
-        <v>-45.3212</v>
+        <v>-56.5914</v>
       </c>
       <c r="E90">
-        <v>0.2019</v>
+        <v>-0.1728</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2205,13 +2235,13 @@
         <v>93</v>
       </c>
       <c r="C91">
-        <v>0.525</v>
+        <v>0.627</v>
       </c>
       <c r="D91">
-        <v>-57.0562</v>
+        <v>-19.3885</v>
       </c>
       <c r="E91">
-        <v>-0.4655</v>
+        <v>-1.5308</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2222,13 +2252,13 @@
         <v>94</v>
       </c>
       <c r="C92">
-        <v>0.509</v>
+        <v>0.614</v>
       </c>
       <c r="D92">
-        <v>-24.445</v>
+        <v>-49.0059</v>
       </c>
       <c r="E92">
-        <v>1.6499</v>
+        <v>0.2081</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2239,13 +2269,13 @@
         <v>95</v>
       </c>
       <c r="C93">
-        <v>0.505</v>
+        <v>0.613</v>
       </c>
       <c r="D93">
         <v>-15.8008</v>
       </c>
       <c r="E93">
-        <v>-0.9144</v>
+        <v>0.7862</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2256,13 +2286,183 @@
         <v>96</v>
       </c>
       <c r="C94">
-        <v>0.505</v>
+        <v>0.609</v>
       </c>
       <c r="D94">
+        <v>-22.1713</v>
+      </c>
+      <c r="E94">
+        <v>-0.0482</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95">
+        <v>0.585</v>
+      </c>
+      <c r="D95">
+        <v>-68.42230000000001</v>
+      </c>
+      <c r="E95">
+        <v>-0.06569999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="D96">
         <v>-15.8008</v>
       </c>
-      <c r="E94">
-        <v>-0.3832</v>
+      <c r="E96">
+        <v>-0.0257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="D97">
+        <v>-22.1713</v>
+      </c>
+      <c r="E97">
+        <v>-0.9776</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98">
+        <v>0.548</v>
+      </c>
+      <c r="D98">
+        <v>-48.104</v>
+      </c>
+      <c r="E98">
+        <v>-0.0806</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99">
+        <v>0.543</v>
+      </c>
+      <c r="D99">
+        <v>-38.1458</v>
+      </c>
+      <c r="E99">
+        <v>-0.5993000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100">
+        <v>0.54</v>
+      </c>
+      <c r="D100">
+        <v>-42.2426</v>
+      </c>
+      <c r="E100">
+        <v>-0.009900000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101">
+        <v>0.54</v>
+      </c>
+      <c r="D101">
+        <v>-10.7442</v>
+      </c>
+      <c r="E101">
+        <v>-0.3195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102">
+        <v>0.527</v>
+      </c>
+      <c r="D102">
+        <v>-64.1648</v>
+      </c>
+      <c r="E102">
+        <v>0.3316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103">
+        <v>0.518</v>
+      </c>
+      <c r="D103">
+        <v>-15.8008</v>
+      </c>
+      <c r="E103">
+        <v>-1.8738</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104">
+        <v>0.517</v>
+      </c>
+      <c r="D104">
+        <v>-54.3492</v>
+      </c>
+      <c r="E104">
+        <v>-0.3698</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2472,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2294,1583 +2494,1753 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C2">
-        <v>0.588</v>
+        <v>0.54</v>
       </c>
       <c r="D2">
         <v>-10.7442</v>
       </c>
       <c r="E2">
-        <v>0.08119999999999999</v>
+        <v>-0.3195</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C3">
-        <v>0.505</v>
+        <v>0.761</v>
       </c>
       <c r="D3">
         <v>-15.8008</v>
       </c>
       <c r="E3">
-        <v>-0.3832</v>
+        <v>-1.3759</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>0.609</v>
+        <v>0.518</v>
       </c>
       <c r="D4">
         <v>-15.8008</v>
       </c>
       <c r="E4">
-        <v>-0.0274</v>
+        <v>-1.8738</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C5">
-        <v>0.919</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="D5">
         <v>-15.8008</v>
       </c>
       <c r="E5">
-        <v>1.4198</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="C6">
-        <v>0.9409999999999999</v>
+        <v>0.613</v>
       </c>
       <c r="D6">
         <v>-15.8008</v>
       </c>
       <c r="E6">
-        <v>0.3959</v>
+        <v>0.7862</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C7">
-        <v>0.868</v>
+        <v>0.644</v>
       </c>
       <c r="D7">
-        <v>-15.8008</v>
+        <v>-19.3885</v>
       </c>
       <c r="E7">
-        <v>-1.7615</v>
+        <v>0.2708</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C8">
-        <v>0.664</v>
+        <v>0.639</v>
       </c>
       <c r="D8">
-        <v>-15.8008</v>
+        <v>-19.3885</v>
       </c>
       <c r="E8">
-        <v>-0.0929</v>
+        <v>0.4113</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C9">
-        <v>0.651</v>
+        <v>0.627</v>
       </c>
       <c r="D9">
-        <v>-15.8008</v>
+        <v>-19.3885</v>
       </c>
       <c r="E9">
-        <v>-0.193</v>
+        <v>-1.5308</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>0.967</v>
+        <v>0.95</v>
       </c>
       <c r="D10">
-        <v>-15.8008</v>
+        <v>-19.3885</v>
       </c>
       <c r="E10">
-        <v>-3.1338</v>
+        <v>-1.1103</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>0.624</v>
+        <v>0.99</v>
       </c>
       <c r="D11">
-        <v>-15.8008</v>
+        <v>-22.1713</v>
       </c>
       <c r="E11">
-        <v>-0.2619</v>
+        <v>-0.9806</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C12">
-        <v>0.859</v>
+        <v>0.609</v>
       </c>
       <c r="D12">
-        <v>-15.8008</v>
+        <v>-22.1713</v>
       </c>
       <c r="E12">
-        <v>-1.2417</v>
+        <v>-0.0482</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>0.588</v>
+        <v>0.966</v>
       </c>
       <c r="D13">
-        <v>-15.8008</v>
+        <v>-22.1713</v>
       </c>
       <c r="E13">
-        <v>0.2914</v>
+        <v>-0.0987</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>0.505</v>
+        <v>0.995</v>
       </c>
       <c r="D14">
-        <v>-15.8008</v>
+        <v>-22.1713</v>
       </c>
       <c r="E14">
-        <v>-0.9144</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>0.593</v>
+        <v>0.967</v>
       </c>
       <c r="D15">
-        <v>-15.8008</v>
+        <v>-22.1713</v>
       </c>
       <c r="E15">
-        <v>-0.7459</v>
+        <v>-0.4393</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C16">
-        <v>0.5679999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D16">
-        <v>-15.8008</v>
+        <v>-22.1713</v>
       </c>
       <c r="E16">
-        <v>-0.1248</v>
+        <v>-0.9776</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C17">
-        <v>0.787</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D17">
-        <v>-19.3885</v>
+        <v>-26.3674</v>
       </c>
       <c r="E17">
-        <v>-0.8561</v>
+        <v>0.2135</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>0.926</v>
+        <v>0.976</v>
       </c>
       <c r="D18">
-        <v>-19.3885</v>
+        <v>-26.3674</v>
       </c>
       <c r="E18">
-        <v>-1.8017</v>
+        <v>2.4935</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C19">
-        <v>0.8070000000000001</v>
+        <v>0.867</v>
       </c>
       <c r="D19">
-        <v>-19.3885</v>
+        <v>-26.3674</v>
       </c>
       <c r="E19">
-        <v>1.0888</v>
+        <v>-1.3472</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C20">
-        <v>0.922</v>
+        <v>0.903</v>
       </c>
       <c r="D20">
-        <v>-19.3885</v>
+        <v>-26.3674</v>
       </c>
       <c r="E20">
-        <v>-0.5817</v>
+        <v>-1.3212</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>0.973</v>
+        <v>0.989</v>
       </c>
       <c r="D21">
-        <v>-19.3885</v>
+        <v>-28.0327</v>
       </c>
       <c r="E21">
-        <v>-1.0585</v>
+        <v>0.2924</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C22">
-        <v>0.974</v>
+        <v>0.96</v>
       </c>
       <c r="D22">
-        <v>-19.3885</v>
+        <v>-28.0327</v>
       </c>
       <c r="E22">
-        <v>-0.019</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>0.853</v>
+        <v>0.979</v>
       </c>
       <c r="D23">
-        <v>-19.3885</v>
+        <v>-28.0327</v>
       </c>
       <c r="E23">
-        <v>-0.6372</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>0.894</v>
+        <v>0.93</v>
       </c>
       <c r="D24">
-        <v>-19.3885</v>
+        <v>-28.0327</v>
       </c>
       <c r="E24">
-        <v>-0.7154</v>
+        <v>-1.6034</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C25">
-        <v>0.921</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D25">
-        <v>-22.1713</v>
+        <v>-29.5016</v>
       </c>
       <c r="E25">
-        <v>0.07729999999999999</v>
+        <v>-0.5495</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C26">
-        <v>0.963</v>
+        <v>0.723</v>
       </c>
       <c r="D26">
-        <v>-22.1713</v>
+        <v>-30.8155</v>
       </c>
       <c r="E26">
-        <v>-0.167</v>
+        <v>0.5444</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="D27">
-        <v>-22.1713</v>
+        <v>-32.0042</v>
       </c>
       <c r="E27">
-        <v>-1.4253</v>
+        <v>0.2829</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C28">
-        <v>0.696</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="D28">
-        <v>-22.1713</v>
+        <v>-32.0042</v>
       </c>
       <c r="E28">
-        <v>0.1039</v>
+        <v>0.9653</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>0.796</v>
+        <v>0.996</v>
       </c>
       <c r="D29">
-        <v>-22.1713</v>
+        <v>-34.0875</v>
       </c>
       <c r="E29">
-        <v>0.9021</v>
+        <v>-0.2538</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C30">
-        <v>0.905</v>
+        <v>0.827</v>
       </c>
       <c r="D30">
-        <v>-24.445</v>
+        <v>-35.0117</v>
       </c>
       <c r="E30">
-        <v>-0.6435999999999999</v>
+        <v>-0.0796</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>0.721</v>
+        <v>0.99</v>
       </c>
       <c r="D31">
-        <v>-24.445</v>
+        <v>-35.8721</v>
       </c>
       <c r="E31">
-        <v>0.0176</v>
+        <v>-0.6646</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C32">
-        <v>0.509</v>
+        <v>0.903</v>
       </c>
       <c r="D32">
-        <v>-24.445</v>
+        <v>-36.677</v>
       </c>
       <c r="E32">
-        <v>1.6499</v>
+        <v>-0.9811</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C33">
-        <v>0.979</v>
+        <v>0.707</v>
       </c>
       <c r="D33">
-        <v>-26.3674</v>
+        <v>-37.433</v>
       </c>
       <c r="E33">
-        <v>0.4105</v>
+        <v>1.5952</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C34">
-        <v>0.863</v>
+        <v>0.543</v>
       </c>
       <c r="D34">
-        <v>-28.0327</v>
+        <v>-38.1458</v>
       </c>
       <c r="E34">
-        <v>0.4029</v>
+        <v>-0.5993000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C35">
-        <v>0.798</v>
+        <v>0.7</v>
       </c>
       <c r="D35">
-        <v>-28.0327</v>
+        <v>-38.1458</v>
       </c>
       <c r="E35">
-        <v>-1.0339</v>
+        <v>-0.9467</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C36">
-        <v>0.977</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D36">
-        <v>-30.8155</v>
+        <v>-38.1458</v>
       </c>
       <c r="E36">
-        <v>0.1291</v>
+        <v>-0.7059</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C37">
-        <v>0.995</v>
+        <v>0.872</v>
       </c>
       <c r="D37">
-        <v>-32.0042</v>
+        <v>-38.1458</v>
       </c>
       <c r="E37">
-        <v>-1.1976</v>
+        <v>-0.3218</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
       <c r="D38">
-        <v>-32.0042</v>
+        <v>-38.8201</v>
       </c>
       <c r="E38">
-        <v>-3.0771</v>
+        <v>0.2346</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C39">
-        <v>0.8149999999999999</v>
+        <v>0.978</v>
       </c>
       <c r="D39">
-        <v>-33.0893</v>
+        <v>-38.8201</v>
       </c>
       <c r="E39">
-        <v>-1.3646</v>
+        <v>-0.2533</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
       <c r="C40">
-        <v>0.904</v>
+        <v>0.967</v>
       </c>
       <c r="D40">
-        <v>-35.8721</v>
+        <v>-38.8201</v>
       </c>
       <c r="E40">
-        <v>-1.7692</v>
+        <v>-0.8646</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C41">
-        <v>0.8110000000000001</v>
+        <v>0.928</v>
       </c>
       <c r="D41">
-        <v>-36.677</v>
+        <v>-39.4598</v>
       </c>
       <c r="E41">
-        <v>0.27</v>
+        <v>-0.6381</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C42">
-        <v>0.977</v>
+        <v>0.846</v>
       </c>
       <c r="D42">
-        <v>-37.433</v>
+        <v>-40.0682</v>
       </c>
       <c r="E42">
-        <v>0.29</v>
+        <v>1.2103</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C43">
-        <v>0.964</v>
+        <v>0.992</v>
       </c>
       <c r="D43">
-        <v>-38.1458</v>
+        <v>-40.6484</v>
       </c>
       <c r="E43">
-        <v>-0.9802</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C44">
-        <v>0.631</v>
+        <v>0.696</v>
       </c>
       <c r="D44">
-        <v>-39.4598</v>
+        <v>-41.2027</v>
       </c>
       <c r="E44">
-        <v>-0.0279</v>
+        <v>1.1109</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C45">
-        <v>0.797</v>
+        <v>0.996</v>
       </c>
       <c r="D45">
-        <v>-40.0682</v>
+        <v>-42.2426</v>
       </c>
       <c r="E45">
-        <v>0.3702</v>
+        <v>-0.4372</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C46">
-        <v>0.665</v>
+        <v>0.54</v>
       </c>
       <c r="D46">
-        <v>-40.0682</v>
+        <v>-42.2426</v>
       </c>
       <c r="E46">
-        <v>-0.6543</v>
+        <v>-0.009900000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C47">
-        <v>0.906</v>
+        <v>0.891</v>
       </c>
       <c r="D47">
-        <v>-40.6484</v>
+        <v>-42.7317</v>
       </c>
       <c r="E47">
-        <v>0.1046</v>
+        <v>1.4545</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>0.666</v>
+        <v>0.997</v>
       </c>
       <c r="D48">
-        <v>-40.6484</v>
+        <v>-43.2024</v>
       </c>
       <c r="E48">
-        <v>0.6807</v>
+        <v>1.8369</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C49">
-        <v>0.616</v>
+        <v>0.994</v>
       </c>
       <c r="D49">
-        <v>-41.2027</v>
+        <v>-43.6559</v>
       </c>
       <c r="E49">
-        <v>0.1985</v>
+        <v>-0.3515</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C50">
-        <v>0.841</v>
+        <v>0.872</v>
       </c>
       <c r="D50">
-        <v>-41.2027</v>
+        <v>-44.0935</v>
       </c>
       <c r="E50">
-        <v>0.3263</v>
+        <v>-1.9195</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C51">
-        <v>0.975</v>
+        <v>0.963</v>
       </c>
       <c r="D51">
-        <v>-41.2027</v>
+        <v>-44.0935</v>
       </c>
       <c r="E51">
-        <v>-1.1123</v>
+        <v>-0.8662</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C52">
-        <v>0.905</v>
+        <v>0.645</v>
       </c>
       <c r="D52">
-        <v>-41.7335</v>
+        <v>-44.5163</v>
       </c>
       <c r="E52">
-        <v>0.0001</v>
+        <v>0.5432</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C53">
-        <v>0.766</v>
+        <v>0.66</v>
       </c>
       <c r="D53">
-        <v>-41.7335</v>
+        <v>-44.9253</v>
       </c>
       <c r="E53">
-        <v>1.0897</v>
+        <v>-1.5673</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C54">
-        <v>0.957</v>
+        <v>0.639</v>
       </c>
       <c r="D54">
-        <v>-42.2426</v>
+        <v>-45.3212</v>
       </c>
       <c r="E54">
-        <v>0.4894</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C55">
-        <v>0.95</v>
+        <v>0.991</v>
       </c>
       <c r="D55">
-        <v>-42.2426</v>
+        <v>-45.7049</v>
       </c>
       <c r="E55">
-        <v>0.2729</v>
+        <v>-1.7996</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C56">
-        <v>0.905</v>
+        <v>0.745</v>
       </c>
       <c r="D56">
-        <v>-42.2426</v>
+        <v>-45.7049</v>
       </c>
       <c r="E56">
-        <v>-0.3666</v>
+        <v>-1.6063</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>0.924</v>
+        <v>0.995</v>
       </c>
       <c r="D57">
-        <v>-43.6559</v>
+        <v>-46.0772</v>
       </c>
       <c r="E57">
-        <v>0.9703000000000001</v>
+        <v>-1.1982</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C58">
-        <v>0.601</v>
+        <v>0.843</v>
       </c>
       <c r="D58">
-        <v>-44.0935</v>
+        <v>-46.4387</v>
       </c>
       <c r="E58">
-        <v>0.0569</v>
+        <v>0.9071</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C59">
-        <v>0.781</v>
+        <v>0.996</v>
       </c>
       <c r="D59">
-        <v>-44.5163</v>
+        <v>-46.7901</v>
       </c>
       <c r="E59">
-        <v>0.5094</v>
+        <v>1.1875</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C60">
-        <v>0.8100000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="D60">
-        <v>-44.9253</v>
+        <v>-46.7901</v>
       </c>
       <c r="E60">
-        <v>-1.5877</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C61">
-        <v>0.632</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D61">
-        <v>-44.9253</v>
+        <v>-47.7883</v>
       </c>
       <c r="E61">
-        <v>-0.1579</v>
+        <v>0.8186</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C62">
-        <v>0.994</v>
+        <v>0.548</v>
       </c>
       <c r="D62">
-        <v>-45.3212</v>
+        <v>-48.104</v>
       </c>
       <c r="E62">
-        <v>-0.9539</v>
+        <v>-0.0806</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C63">
-        <v>0.534</v>
+        <v>0.971</v>
       </c>
       <c r="D63">
-        <v>-45.3212</v>
+        <v>-48.104</v>
       </c>
       <c r="E63">
-        <v>0.2019</v>
+        <v>-0.0977</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C64">
-        <v>0.8129999999999999</v>
+        <v>0.614</v>
       </c>
       <c r="D64">
-        <v>-45.3212</v>
+        <v>-49.0059</v>
       </c>
       <c r="E64">
-        <v>-0.6707</v>
+        <v>0.2081</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>0.746</v>
+        <v>0.996</v>
       </c>
       <c r="D65">
-        <v>-45.7049</v>
+        <v>-49.2926</v>
       </c>
       <c r="E65">
-        <v>-0.41</v>
+        <v>-0.5886</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C66">
-        <v>0.981</v>
+        <v>0.865</v>
       </c>
       <c r="D66">
-        <v>-45.7049</v>
+        <v>-49.5729</v>
       </c>
       <c r="E66">
-        <v>-0.4617</v>
+        <v>-0.6631</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C67">
-        <v>0.958</v>
+        <v>0.906</v>
       </c>
       <c r="D67">
-        <v>-46.0772</v>
+        <v>-49.847</v>
       </c>
       <c r="E67">
-        <v>-0.4104</v>
+        <v>1.2245</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>0.985</v>
+        <v>0.997</v>
       </c>
       <c r="D68">
-        <v>-47.4643</v>
+        <v>-50.1152</v>
       </c>
       <c r="E68">
-        <v>0.1429</v>
+        <v>1.2233</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C69">
-        <v>0.8110000000000001</v>
+        <v>0.972</v>
       </c>
       <c r="D69">
-        <v>-49.5729</v>
+        <v>-50.3777</v>
       </c>
       <c r="E69">
-        <v>0.2282</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C70">
-        <v>0.989</v>
+        <v>0.85</v>
       </c>
       <c r="D70">
-        <v>-52.0755</v>
+        <v>-51.376</v>
       </c>
       <c r="E70">
-        <v>-0.0702</v>
+        <v>-0.9032</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
       <c r="D71">
-        <v>-54.1588</v>
+        <v>-52.3002</v>
       </c>
       <c r="E71">
-        <v>-0.2535</v>
+        <v>-1.8378</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C72">
-        <v>0.983</v>
+        <v>0.964</v>
       </c>
       <c r="D72">
-        <v>-56.7483</v>
+        <v>-52.951</v>
       </c>
       <c r="E72">
-        <v>-1.0156</v>
+        <v>0.2835</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="C73">
-        <v>0.525</v>
+        <v>0.974</v>
       </c>
       <c r="D73">
-        <v>-57.0562</v>
+        <v>-52.951</v>
       </c>
       <c r="E73">
-        <v>-0.4655</v>
+        <v>-0.0655</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>0.8</v>
+        <v>0.994</v>
       </c>
       <c r="D74">
-        <v>-57.7943</v>
+        <v>-53.5695</v>
       </c>
       <c r="E74">
-        <v>0.646</v>
+        <v>1.4328</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C75">
-        <v>0.966</v>
+        <v>0.916</v>
       </c>
       <c r="D75">
-        <v>-61.382</v>
+        <v>-53.5695</v>
       </c>
       <c r="E75">
-        <v>-1.1656</v>
+        <v>-0.2667</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C76">
-        <v>0.958</v>
+        <v>0.763</v>
       </c>
       <c r="D76">
-        <v>-61.5952</v>
+        <v>-53.9654</v>
       </c>
       <c r="E76">
-        <v>-0.7328</v>
+        <v>-0.8241000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C77">
-        <v>0.654</v>
+        <v>0.517</v>
       </c>
       <c r="D77">
-        <v>-61.8048</v>
+        <v>-54.3492</v>
       </c>
       <c r="E77">
-        <v>-0.6723</v>
+        <v>-0.3698</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C78">
-        <v>0.988</v>
+        <v>0.876</v>
       </c>
       <c r="D78">
-        <v>-63.4571</v>
+        <v>-54.3492</v>
       </c>
       <c r="E78">
-        <v>-0.0389</v>
+        <v>-1.2184</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C79">
-        <v>0.872</v>
+        <v>0.996</v>
       </c>
       <c r="D79">
-        <v>-64.25060000000001</v>
+        <v>-54.9035</v>
       </c>
       <c r="E79">
-        <v>-0.5258</v>
+        <v>1.2657</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C80">
-        <v>0.616</v>
+        <v>0.976</v>
       </c>
       <c r="D80">
-        <v>-64.42019999999999</v>
+        <v>-55.6063</v>
       </c>
       <c r="E80">
-        <v>-0.3498</v>
+        <v>-0.579</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C81">
-        <v>0.775</v>
+        <v>0.707</v>
       </c>
       <c r="D81">
-        <v>-64.6705</v>
+        <v>-55.9434</v>
       </c>
       <c r="E81">
-        <v>-0.2922</v>
+        <v>-0.8386</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C82">
-        <v>0.887</v>
+        <v>0.631</v>
       </c>
       <c r="D82">
-        <v>-64.75279999999999</v>
+        <v>-56.5914</v>
       </c>
       <c r="E82">
-        <v>-0.6217</v>
+        <v>-0.1728</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C83">
-        <v>0.974</v>
+        <v>0.982</v>
       </c>
       <c r="D83">
-        <v>-64.83459999999999</v>
+        <v>-57.9369</v>
       </c>
       <c r="E83">
-        <v>-0.3354</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C84">
-        <v>0.875</v>
+        <v>0.861</v>
       </c>
       <c r="D84">
-        <v>-65.23560000000001</v>
+        <v>-62.9934</v>
       </c>
       <c r="E84">
-        <v>-0.2072</v>
+        <v>0.06809999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C85">
-        <v>0.785</v>
+        <v>0.829</v>
       </c>
       <c r="D85">
-        <v>-66.65179999999999</v>
+        <v>-63.0875</v>
       </c>
       <c r="E85">
-        <v>-1.0577</v>
+        <v>0.5179</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C86">
-        <v>0.833</v>
+        <v>0.87</v>
       </c>
       <c r="D86">
-        <v>-66.72199999999999</v>
+        <v>-63.9916</v>
       </c>
       <c r="E86">
-        <v>-1.3192</v>
+        <v>0.3174</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C87">
-        <v>0.779</v>
+        <v>0.527</v>
       </c>
       <c r="D87">
-        <v>-66.7919</v>
+        <v>-64.1648</v>
       </c>
       <c r="E87">
-        <v>0.3723</v>
+        <v>0.3316</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C88">
-        <v>0.888</v>
+        <v>0.947</v>
       </c>
       <c r="D88">
-        <v>-66.93049999999999</v>
+        <v>-67.6662</v>
       </c>
       <c r="E88">
-        <v>-0.4769</v>
+        <v>-0.4722</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C89">
-        <v>0.576</v>
+        <v>0.982</v>
       </c>
       <c r="D89">
-        <v>-66.9992</v>
+        <v>-68.11279999999999</v>
       </c>
       <c r="E89">
-        <v>-0.8437</v>
+        <v>0.9919</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C90">
-        <v>0.681</v>
+        <v>0.634</v>
       </c>
       <c r="D90">
-        <v>-67.20310000000001</v>
+        <v>-68.361</v>
       </c>
       <c r="E90">
-        <v>-1.2736</v>
+        <v>0.9369</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C91">
-        <v>0.999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D91">
-        <v>-67.20310000000001</v>
+        <v>-68.42230000000001</v>
       </c>
       <c r="E91">
-        <v>0.5253</v>
+        <v>-0.0221</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C92">
-        <v>0.599</v>
+        <v>0.585</v>
       </c>
       <c r="D92">
-        <v>-68.17529999999999</v>
+        <v>-68.42230000000001</v>
       </c>
       <c r="E92">
-        <v>-0.6919999999999999</v>
+        <v>-0.06569999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C93">
-        <v>0.802</v>
+        <v>0.898</v>
       </c>
       <c r="D93">
-        <v>-73.6005</v>
+        <v>-68.54389999999999</v>
       </c>
       <c r="E93">
-        <v>-0.8807</v>
+        <v>-0.9188</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C94">
-        <v>0.787</v>
+        <v>0.995</v>
       </c>
       <c r="D94">
-        <v>-73.681</v>
+        <v>-68.54389999999999</v>
       </c>
       <c r="E94">
-        <v>-0.434</v>
+        <v>-0.5306999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>53</v>
+      </c>
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95">
+        <v>0.892</v>
+      </c>
+      <c r="D95">
+        <v>-68.60429999999999</v>
+      </c>
+      <c r="E95">
+        <v>-0.3501</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>35</v>
+      </c>
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96">
+        <v>0.964</v>
+      </c>
+      <c r="D96">
+        <v>-68.60429999999999</v>
+      </c>
+      <c r="E96">
+        <v>-0.3456</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>57</v>
+      </c>
+      <c r="B97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97">
+        <v>0.874</v>
+      </c>
+      <c r="D97">
+        <v>-68.60429999999999</v>
+      </c>
+      <c r="E97">
+        <v>0.3975</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>81</v>
+      </c>
+      <c r="B98" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98">
+        <v>0.664</v>
+      </c>
+      <c r="D98">
+        <v>-68.60429999999999</v>
+      </c>
+      <c r="E98">
+        <v>-2.3351</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>64</v>
+      </c>
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99">
+        <v>0.853</v>
+      </c>
+      <c r="D99">
+        <v>-68.60429999999999</v>
+      </c>
+      <c r="E99">
+        <v>-0.7386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100">
+        <v>0.995</v>
+      </c>
+      <c r="D100">
+        <v>-68.7243</v>
+      </c>
+      <c r="E100">
+        <v>0.4682</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>0.996</v>
+      </c>
+      <c r="D101">
+        <v>-68.843</v>
+      </c>
+      <c r="E101">
+        <v>-0.0369</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>47</v>
+      </c>
+      <c r="B102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102">
+        <v>0.918</v>
+      </c>
+      <c r="D102">
+        <v>-69.0772</v>
+      </c>
+      <c r="E102">
+        <v>-1.8216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>72</v>
+      </c>
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103">
+        <v>0.765</v>
+      </c>
+      <c r="D103">
+        <v>-69.13509999999999</v>
+      </c>
+      <c r="E103">
+        <v>1.128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>0.997</v>
+      </c>
+      <c r="D104">
+        <v>-69.30710000000001</v>
+      </c>
+      <c r="E104">
+        <v>0.9801</v>
       </c>
     </row>
   </sheetData>
@@ -3880,7 +4250,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3902,1583 +4272,1753 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>0.509</v>
+        <v>0.976</v>
       </c>
       <c r="D2">
-        <v>-24.445</v>
+        <v>-26.3674</v>
       </c>
       <c r="E2">
-        <v>1.6499</v>
+        <v>2.4935</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.919</v>
+        <v>0.997</v>
       </c>
       <c r="D3">
-        <v>-15.8008</v>
+        <v>-43.2024</v>
       </c>
       <c r="E3">
-        <v>1.4198</v>
+        <v>1.8369</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C4">
-        <v>0.766</v>
+        <v>0.707</v>
       </c>
       <c r="D4">
-        <v>-41.7335</v>
+        <v>-37.433</v>
       </c>
       <c r="E4">
-        <v>1.0897</v>
+        <v>1.5952</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>0.8070000000000001</v>
+        <v>0.891</v>
       </c>
       <c r="D5">
-        <v>-19.3885</v>
+        <v>-42.7317</v>
       </c>
       <c r="E5">
-        <v>1.0888</v>
+        <v>1.4545</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>0.924</v>
+        <v>0.994</v>
       </c>
       <c r="D6">
-        <v>-43.6559</v>
+        <v>-53.5695</v>
       </c>
       <c r="E6">
-        <v>0.9703000000000001</v>
+        <v>1.4328</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>0.796</v>
+        <v>0.996</v>
       </c>
       <c r="D7">
-        <v>-22.1713</v>
+        <v>-54.9035</v>
       </c>
       <c r="E7">
-        <v>0.9021</v>
+        <v>1.2657</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>0.666</v>
+        <v>0.906</v>
       </c>
       <c r="D8">
-        <v>-40.6484</v>
+        <v>-49.847</v>
       </c>
       <c r="E8">
-        <v>0.6807</v>
+        <v>1.2245</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.997</v>
       </c>
       <c r="D9">
-        <v>-57.7943</v>
+        <v>-50.1152</v>
       </c>
       <c r="E9">
-        <v>0.646</v>
+        <v>1.2233</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C10">
-        <v>0.999</v>
+        <v>0.846</v>
       </c>
       <c r="D10">
-        <v>-67.20310000000001</v>
+        <v>-40.0682</v>
       </c>
       <c r="E10">
-        <v>0.5253</v>
+        <v>1.2103</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>0.781</v>
+        <v>0.996</v>
       </c>
       <c r="D11">
-        <v>-44.5163</v>
+        <v>-46.7901</v>
       </c>
       <c r="E11">
-        <v>0.5094</v>
+        <v>1.1875</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C12">
-        <v>0.957</v>
+        <v>0.765</v>
       </c>
       <c r="D12">
-        <v>-42.2426</v>
+        <v>-69.13509999999999</v>
       </c>
       <c r="E12">
-        <v>0.4894</v>
+        <v>1.128</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C13">
-        <v>0.979</v>
+        <v>0.696</v>
       </c>
       <c r="D13">
-        <v>-26.3674</v>
+        <v>-41.2027</v>
       </c>
       <c r="E13">
-        <v>0.4105</v>
+        <v>1.1109</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>0.863</v>
+        <v>0.982</v>
       </c>
       <c r="D14">
-        <v>-28.0327</v>
+        <v>-68.11279999999999</v>
       </c>
       <c r="E14">
-        <v>0.4029</v>
+        <v>0.9919</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0.9409999999999999</v>
+        <v>0.997</v>
       </c>
       <c r="D15">
-        <v>-15.8008</v>
+        <v>-69.30710000000001</v>
       </c>
       <c r="E15">
-        <v>0.3959</v>
+        <v>0.9801</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C16">
-        <v>0.779</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="D16">
-        <v>-66.7919</v>
+        <v>-32.0042</v>
       </c>
       <c r="E16">
-        <v>0.3723</v>
+        <v>0.9653</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C17">
-        <v>0.797</v>
+        <v>0.634</v>
       </c>
       <c r="D17">
-        <v>-40.0682</v>
+        <v>-68.361</v>
       </c>
       <c r="E17">
-        <v>0.3702</v>
+        <v>0.9369</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C18">
-        <v>0.841</v>
+        <v>0.843</v>
       </c>
       <c r="D18">
-        <v>-41.2027</v>
+        <v>-46.4387</v>
       </c>
       <c r="E18">
-        <v>0.3263</v>
+        <v>0.9071</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C19">
-        <v>0.588</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D19">
-        <v>-15.8008</v>
+        <v>-47.7883</v>
       </c>
       <c r="E19">
-        <v>0.2914</v>
+        <v>0.8186</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C20">
-        <v>0.977</v>
+        <v>0.613</v>
       </c>
       <c r="D20">
-        <v>-37.433</v>
+        <v>-15.8008</v>
       </c>
       <c r="E20">
-        <v>0.29</v>
+        <v>0.7862</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C21">
-        <v>0.95</v>
+        <v>0.723</v>
       </c>
       <c r="D21">
-        <v>-42.2426</v>
+        <v>-30.8155</v>
       </c>
       <c r="E21">
-        <v>0.2729</v>
+        <v>0.5444</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C22">
-        <v>0.8110000000000001</v>
+        <v>0.645</v>
       </c>
       <c r="D22">
-        <v>-36.677</v>
+        <v>-44.5163</v>
       </c>
       <c r="E22">
-        <v>0.27</v>
+        <v>0.5432</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C23">
-        <v>0.8110000000000001</v>
+        <v>0.829</v>
       </c>
       <c r="D23">
-        <v>-49.5729</v>
+        <v>-63.0875</v>
       </c>
       <c r="E23">
-        <v>0.2282</v>
+        <v>0.5179</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>0.534</v>
+        <v>0.995</v>
       </c>
       <c r="D24">
-        <v>-45.3212</v>
+        <v>-68.7243</v>
       </c>
       <c r="E24">
-        <v>0.2019</v>
+        <v>0.4682</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C25">
-        <v>0.616</v>
+        <v>0.639</v>
       </c>
       <c r="D25">
-        <v>-41.2027</v>
+        <v>-19.3885</v>
       </c>
       <c r="E25">
-        <v>0.1985</v>
+        <v>0.4113</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>0.985</v>
+        <v>0.874</v>
       </c>
       <c r="D26">
-        <v>-47.4643</v>
+        <v>-68.60429999999999</v>
       </c>
       <c r="E26">
-        <v>0.1429</v>
+        <v>0.3975</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="C27">
-        <v>0.977</v>
+        <v>0.527</v>
       </c>
       <c r="D27">
-        <v>-30.8155</v>
+        <v>-64.1648</v>
       </c>
       <c r="E27">
-        <v>0.1291</v>
+        <v>0.3316</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C28">
-        <v>0.906</v>
+        <v>0.87</v>
       </c>
       <c r="D28">
-        <v>-40.6484</v>
+        <v>-63.9916</v>
       </c>
       <c r="E28">
-        <v>0.1046</v>
+        <v>0.3174</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C29">
-        <v>0.696</v>
+        <v>0.989</v>
       </c>
       <c r="D29">
-        <v>-22.1713</v>
+        <v>-28.0327</v>
       </c>
       <c r="E29">
-        <v>0.1039</v>
+        <v>0.2924</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C30">
-        <v>0.588</v>
+        <v>0.964</v>
       </c>
       <c r="D30">
-        <v>-10.7442</v>
+        <v>-52.951</v>
       </c>
       <c r="E30">
-        <v>0.08119999999999999</v>
+        <v>0.2835</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>0.921</v>
+        <v>0.984</v>
       </c>
       <c r="D31">
-        <v>-22.1713</v>
+        <v>-32.0042</v>
       </c>
       <c r="E31">
-        <v>0.07729999999999999</v>
+        <v>0.2829</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C32">
-        <v>0.601</v>
+        <v>0.644</v>
       </c>
       <c r="D32">
-        <v>-44.0935</v>
+        <v>-19.3885</v>
       </c>
       <c r="E32">
-        <v>0.0569</v>
+        <v>0.2708</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>0.721</v>
+        <v>0.993</v>
       </c>
       <c r="D33">
-        <v>-24.445</v>
+        <v>-38.8201</v>
       </c>
       <c r="E33">
-        <v>0.0176</v>
+        <v>0.2346</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>0.905</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D34">
-        <v>-41.7335</v>
+        <v>-26.3674</v>
       </c>
       <c r="E34">
-        <v>0.0001</v>
+        <v>0.2135</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C35">
-        <v>0.974</v>
+        <v>0.614</v>
       </c>
       <c r="D35">
-        <v>-19.3885</v>
+        <v>-49.0059</v>
       </c>
       <c r="E35">
-        <v>-0.019</v>
+        <v>0.2081</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C36">
-        <v>0.609</v>
+        <v>0.639</v>
       </c>
       <c r="D36">
-        <v>-15.8008</v>
+        <v>-45.3212</v>
       </c>
       <c r="E36">
-        <v>-0.0274</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>0.631</v>
+        <v>0.972</v>
       </c>
       <c r="D37">
-        <v>-39.4598</v>
+        <v>-50.3777</v>
       </c>
       <c r="E37">
-        <v>-0.0279</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C38">
-        <v>0.988</v>
+        <v>0.861</v>
       </c>
       <c r="D38">
-        <v>-63.4571</v>
+        <v>-62.9934</v>
       </c>
       <c r="E38">
-        <v>-0.0389</v>
+        <v>0.06809999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C39">
-        <v>0.989</v>
+        <v>0.992</v>
       </c>
       <c r="D39">
-        <v>-52.0755</v>
+        <v>-40.6484</v>
       </c>
       <c r="E39">
-        <v>-0.0702</v>
+        <v>0.0586</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C40">
-        <v>0.664</v>
+        <v>0.875</v>
       </c>
       <c r="D40">
-        <v>-15.8008</v>
+        <v>-46.7901</v>
       </c>
       <c r="E40">
-        <v>-0.0929</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="C41">
-        <v>0.5679999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="D41">
-        <v>-15.8008</v>
+        <v>-22.1713</v>
       </c>
       <c r="E41">
-        <v>-0.1248</v>
+        <v>0.0358</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C42">
-        <v>0.632</v>
+        <v>0.982</v>
       </c>
       <c r="D42">
-        <v>-44.9253</v>
+        <v>-57.9369</v>
       </c>
       <c r="E42">
-        <v>-0.1579</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C43">
-        <v>0.963</v>
+        <v>0.979</v>
       </c>
       <c r="D43">
-        <v>-22.1713</v>
+        <v>-28.0327</v>
       </c>
       <c r="E43">
-        <v>-0.167</v>
+        <v>0.0162</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C44">
-        <v>0.651</v>
+        <v>0.54</v>
       </c>
       <c r="D44">
-        <v>-15.8008</v>
+        <v>-42.2426</v>
       </c>
       <c r="E44">
-        <v>-0.193</v>
+        <v>-0.009900000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C45">
-        <v>0.875</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D45">
-        <v>-65.23560000000001</v>
+        <v>-68.42230000000001</v>
       </c>
       <c r="E45">
-        <v>-0.2072</v>
+        <v>-0.0221</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C46">
-        <v>0.99</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="D46">
-        <v>-54.1588</v>
+        <v>-15.8008</v>
       </c>
       <c r="E46">
-        <v>-0.2535</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>0.624</v>
+        <v>0.996</v>
       </c>
       <c r="D47">
-        <v>-15.8008</v>
+        <v>-68.843</v>
       </c>
       <c r="E47">
-        <v>-0.2619</v>
+        <v>-0.0369</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C48">
-        <v>0.775</v>
+        <v>0.609</v>
       </c>
       <c r="D48">
-        <v>-64.6705</v>
+        <v>-22.1713</v>
       </c>
       <c r="E48">
-        <v>-0.2922</v>
+        <v>-0.0482</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C49">
         <v>0.974</v>
       </c>
       <c r="D49">
-        <v>-64.83459999999999</v>
+        <v>-52.951</v>
       </c>
       <c r="E49">
-        <v>-0.3354</v>
+        <v>-0.0655</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C50">
-        <v>0.616</v>
+        <v>0.585</v>
       </c>
       <c r="D50">
-        <v>-64.42019999999999</v>
+        <v>-68.42230000000001</v>
       </c>
       <c r="E50">
-        <v>-0.3498</v>
+        <v>-0.06569999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C51">
-        <v>0.905</v>
+        <v>0.827</v>
       </c>
       <c r="D51">
-        <v>-42.2426</v>
+        <v>-35.0117</v>
       </c>
       <c r="E51">
-        <v>-0.3666</v>
+        <v>-0.0796</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C52">
-        <v>0.505</v>
+        <v>0.548</v>
       </c>
       <c r="D52">
-        <v>-15.8008</v>
+        <v>-48.104</v>
       </c>
       <c r="E52">
-        <v>-0.3832</v>
+        <v>-0.0806</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C53">
-        <v>0.746</v>
+        <v>0.971</v>
       </c>
       <c r="D53">
-        <v>-45.7049</v>
+        <v>-48.104</v>
       </c>
       <c r="E53">
-        <v>-0.41</v>
+        <v>-0.0977</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C54">
-        <v>0.958</v>
+        <v>0.966</v>
       </c>
       <c r="D54">
-        <v>-46.0772</v>
+        <v>-22.1713</v>
       </c>
       <c r="E54">
-        <v>-0.4104</v>
+        <v>-0.0987</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C55">
-        <v>0.787</v>
+        <v>0.631</v>
       </c>
       <c r="D55">
-        <v>-73.681</v>
+        <v>-56.5914</v>
       </c>
       <c r="E55">
-        <v>-0.434</v>
+        <v>-0.1728</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C56">
-        <v>0.981</v>
+        <v>0.978</v>
       </c>
       <c r="D56">
-        <v>-45.7049</v>
+        <v>-38.8201</v>
       </c>
       <c r="E56">
-        <v>-0.4617</v>
+        <v>-0.2533</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>0.525</v>
+        <v>0.996</v>
       </c>
       <c r="D57">
-        <v>-57.0562</v>
+        <v>-34.0875</v>
       </c>
       <c r="E57">
-        <v>-0.4655</v>
+        <v>-0.2538</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C58">
-        <v>0.888</v>
+        <v>0.916</v>
       </c>
       <c r="D58">
-        <v>-66.93049999999999</v>
+        <v>-53.5695</v>
       </c>
       <c r="E58">
-        <v>-0.4769</v>
+        <v>-0.2667</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="C59">
-        <v>0.872</v>
+        <v>0.54</v>
       </c>
       <c r="D59">
-        <v>-64.25060000000001</v>
+        <v>-10.7442</v>
       </c>
       <c r="E59">
-        <v>-0.5258</v>
+        <v>-0.3195</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C60">
-        <v>0.922</v>
+        <v>0.872</v>
       </c>
       <c r="D60">
-        <v>-19.3885</v>
+        <v>-38.1458</v>
       </c>
       <c r="E60">
-        <v>-0.5817</v>
+        <v>-0.3218</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61">
-        <v>0.887</v>
+        <v>0.96</v>
       </c>
       <c r="D61">
-        <v>-64.75279999999999</v>
+        <v>-28.0327</v>
       </c>
       <c r="E61">
-        <v>-0.6217</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C62">
-        <v>0.853</v>
+        <v>0.964</v>
       </c>
       <c r="D62">
-        <v>-19.3885</v>
+        <v>-68.60429999999999</v>
       </c>
       <c r="E62">
-        <v>-0.6372</v>
+        <v>-0.3456</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C63">
-        <v>0.905</v>
+        <v>0.892</v>
       </c>
       <c r="D63">
-        <v>-24.445</v>
+        <v>-68.60429999999999</v>
       </c>
       <c r="E63">
-        <v>-0.6435999999999999</v>
+        <v>-0.3501</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C64">
-        <v>0.665</v>
+        <v>0.994</v>
       </c>
       <c r="D64">
-        <v>-40.0682</v>
+        <v>-43.6559</v>
       </c>
       <c r="E64">
-        <v>-0.6543</v>
+        <v>-0.3515</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C65">
-        <v>0.8129999999999999</v>
+        <v>0.517</v>
       </c>
       <c r="D65">
-        <v>-45.3212</v>
+        <v>-54.3492</v>
       </c>
       <c r="E65">
-        <v>-0.6707</v>
+        <v>-0.3698</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C66">
-        <v>0.654</v>
+        <v>0.996</v>
       </c>
       <c r="D66">
-        <v>-61.8048</v>
+        <v>-42.2426</v>
       </c>
       <c r="E66">
-        <v>-0.6723</v>
+        <v>-0.4372</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C67">
-        <v>0.599</v>
+        <v>0.967</v>
       </c>
       <c r="D67">
-        <v>-68.17529999999999</v>
+        <v>-22.1713</v>
       </c>
       <c r="E67">
-        <v>-0.6919999999999999</v>
+        <v>-0.4393</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C68">
-        <v>0.894</v>
+        <v>0.947</v>
       </c>
       <c r="D68">
-        <v>-19.3885</v>
+        <v>-67.6662</v>
       </c>
       <c r="E68">
-        <v>-0.7154</v>
+        <v>-0.4722</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C69">
-        <v>0.958</v>
+        <v>0.995</v>
       </c>
       <c r="D69">
-        <v>-61.5952</v>
+        <v>-68.54389999999999</v>
       </c>
       <c r="E69">
-        <v>-0.7328</v>
+        <v>-0.5306999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C70">
-        <v>0.593</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D70">
-        <v>-15.8008</v>
+        <v>-29.5016</v>
       </c>
       <c r="E70">
-        <v>-0.7459</v>
+        <v>-0.5495</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C71">
-        <v>0.576</v>
+        <v>0.976</v>
       </c>
       <c r="D71">
-        <v>-66.9992</v>
+        <v>-55.6063</v>
       </c>
       <c r="E71">
-        <v>-0.8437</v>
+        <v>-0.579</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>0.787</v>
+        <v>0.996</v>
       </c>
       <c r="D72">
-        <v>-19.3885</v>
+        <v>-49.2926</v>
       </c>
       <c r="E72">
-        <v>-0.8561</v>
+        <v>-0.5886</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C73">
-        <v>0.802</v>
+        <v>0.543</v>
       </c>
       <c r="D73">
-        <v>-73.6005</v>
+        <v>-38.1458</v>
       </c>
       <c r="E73">
-        <v>-0.8807</v>
+        <v>-0.5993000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C74">
-        <v>0.505</v>
+        <v>0.928</v>
       </c>
       <c r="D74">
-        <v>-15.8008</v>
+        <v>-39.4598</v>
       </c>
       <c r="E74">
-        <v>-0.9144</v>
+        <v>-0.6381</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C75">
-        <v>0.994</v>
+        <v>0.865</v>
       </c>
       <c r="D75">
-        <v>-45.3212</v>
+        <v>-49.5729</v>
       </c>
       <c r="E75">
-        <v>-0.9539</v>
+        <v>-0.6631</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C76">
-        <v>0.964</v>
+        <v>0.99</v>
       </c>
       <c r="D76">
-        <v>-38.1458</v>
+        <v>-35.8721</v>
       </c>
       <c r="E76">
-        <v>-0.9802</v>
+        <v>-0.6646</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C77">
-        <v>0.983</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D77">
-        <v>-56.7483</v>
+        <v>-38.1458</v>
       </c>
       <c r="E77">
-        <v>-1.0156</v>
+        <v>-0.7059</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C78">
-        <v>0.798</v>
+        <v>0.853</v>
       </c>
       <c r="D78">
-        <v>-28.0327</v>
+        <v>-68.60429999999999</v>
       </c>
       <c r="E78">
-        <v>-1.0339</v>
+        <v>-0.7386</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C79">
-        <v>0.785</v>
+        <v>0.763</v>
       </c>
       <c r="D79">
-        <v>-66.65179999999999</v>
+        <v>-53.9654</v>
       </c>
       <c r="E79">
-        <v>-1.0577</v>
+        <v>-0.8241000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C80">
-        <v>0.973</v>
+        <v>0.707</v>
       </c>
       <c r="D80">
-        <v>-19.3885</v>
+        <v>-55.9434</v>
       </c>
       <c r="E80">
-        <v>-1.0585</v>
+        <v>-0.8386</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C81">
-        <v>0.975</v>
+        <v>0.967</v>
       </c>
       <c r="D81">
-        <v>-41.2027</v>
+        <v>-38.8201</v>
       </c>
       <c r="E81">
-        <v>-1.1123</v>
+        <v>-0.8646</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C82">
-        <v>0.966</v>
+        <v>0.963</v>
       </c>
       <c r="D82">
-        <v>-61.382</v>
+        <v>-44.0935</v>
       </c>
       <c r="E82">
-        <v>-1.1656</v>
+        <v>-0.8662</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C83">
-        <v>0.995</v>
+        <v>0.85</v>
       </c>
       <c r="D83">
-        <v>-32.0042</v>
+        <v>-51.376</v>
       </c>
       <c r="E83">
-        <v>-1.1976</v>
+        <v>-0.9032</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C84">
-        <v>0.859</v>
+        <v>0.898</v>
       </c>
       <c r="D84">
-        <v>-15.8008</v>
+        <v>-68.54389999999999</v>
       </c>
       <c r="E84">
-        <v>-1.2417</v>
+        <v>-0.9188</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C85">
-        <v>0.681</v>
+        <v>0.7</v>
       </c>
       <c r="D85">
-        <v>-67.20310000000001</v>
+        <v>-38.1458</v>
       </c>
       <c r="E85">
-        <v>-1.2736</v>
+        <v>-0.9467</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C86">
-        <v>0.833</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D86">
-        <v>-66.72199999999999</v>
+        <v>-22.1713</v>
       </c>
       <c r="E86">
-        <v>-1.3192</v>
+        <v>-0.9776</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C87">
-        <v>0.8149999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="D87">
-        <v>-33.0893</v>
+        <v>-22.1713</v>
       </c>
       <c r="E87">
-        <v>-1.3646</v>
+        <v>-0.9806</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C88">
-        <v>0.996</v>
+        <v>0.903</v>
       </c>
       <c r="D88">
-        <v>-22.1713</v>
+        <v>-36.677</v>
       </c>
       <c r="E88">
-        <v>-1.4253</v>
+        <v>-0.9811</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C89">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="D89">
-        <v>-44.9253</v>
+        <v>-19.3885</v>
       </c>
       <c r="E89">
-        <v>-1.5877</v>
+        <v>-1.1103</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>0.868</v>
+        <v>0.995</v>
       </c>
       <c r="D90">
-        <v>-15.8008</v>
+        <v>-46.0772</v>
       </c>
       <c r="E90">
-        <v>-1.7615</v>
+        <v>-1.1982</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C91">
-        <v>0.904</v>
+        <v>0.876</v>
       </c>
       <c r="D91">
-        <v>-35.8721</v>
+        <v>-54.3492</v>
       </c>
       <c r="E91">
-        <v>-1.7692</v>
+        <v>-1.2184</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C92">
-        <v>0.926</v>
+        <v>0.903</v>
       </c>
       <c r="D92">
-        <v>-19.3885</v>
+        <v>-26.3674</v>
       </c>
       <c r="E92">
-        <v>-1.8017</v>
+        <v>-1.3212</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C93">
-        <v>0.988</v>
+        <v>0.867</v>
       </c>
       <c r="D93">
-        <v>-32.0042</v>
+        <v>-26.3674</v>
       </c>
       <c r="E93">
-        <v>-3.0771</v>
+        <v>-1.3472</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C94">
-        <v>0.967</v>
+        <v>0.761</v>
       </c>
       <c r="D94">
         <v>-15.8008</v>
       </c>
       <c r="E94">
-        <v>-3.1338</v>
+        <v>-1.3759</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>89</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>0.627</v>
+      </c>
+      <c r="D95">
+        <v>-19.3885</v>
+      </c>
+      <c r="E95">
+        <v>-1.5308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>82</v>
+      </c>
+      <c r="B96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96">
+        <v>0.66</v>
+      </c>
+      <c r="D96">
+        <v>-44.9253</v>
+      </c>
+      <c r="E96">
+        <v>-1.5673</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>45</v>
+      </c>
+      <c r="B97" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97">
+        <v>0.93</v>
+      </c>
+      <c r="D97">
+        <v>-28.0327</v>
+      </c>
+      <c r="E97">
+        <v>-1.6034</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>75</v>
+      </c>
+      <c r="B98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98">
+        <v>0.745</v>
+      </c>
+      <c r="D98">
+        <v>-45.7049</v>
+      </c>
+      <c r="E98">
+        <v>-1.6063</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99">
+        <v>0.991</v>
+      </c>
+      <c r="D99">
+        <v>-45.7049</v>
+      </c>
+      <c r="E99">
+        <v>-1.7996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>47</v>
+      </c>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100">
+        <v>0.918</v>
+      </c>
+      <c r="D100">
+        <v>-69.0772</v>
+      </c>
+      <c r="E100">
+        <v>-1.8216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>0.997</v>
+      </c>
+      <c r="D101">
+        <v>-52.3002</v>
+      </c>
+      <c r="E101">
+        <v>-1.8378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102">
+        <v>0.518</v>
+      </c>
+      <c r="D102">
+        <v>-15.8008</v>
+      </c>
+      <c r="E102">
+        <v>-1.8738</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>58</v>
+      </c>
+      <c r="B103" t="s">
+        <v>62</v>
+      </c>
+      <c r="C103">
+        <v>0.872</v>
+      </c>
+      <c r="D103">
+        <v>-44.0935</v>
+      </c>
+      <c r="E103">
+        <v>-1.9195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>81</v>
+      </c>
+      <c r="B104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104">
+        <v>0.664</v>
+      </c>
+      <c r="D104">
+        <v>-68.60429999999999</v>
+      </c>
+      <c r="E104">
+        <v>-2.3351</v>
       </c>
     </row>
   </sheetData>

--- a/SSBONDwebsite/media/result/result.xlsx
+++ b/SSBONDwebsite/media/result/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="106">
   <si>
     <t>key</t>
   </si>
@@ -30,313 +30,310 @@
     <t>energy</t>
   </si>
   <si>
-    <t>PHEA42-ALAA261</t>
-  </si>
-  <si>
-    <t>LEUA53-GLNA109</t>
-  </si>
-  <si>
-    <t>LEUA22-ALAA69</t>
-  </si>
-  <si>
-    <t>LEUA203-ALAA230</t>
-  </si>
-  <si>
-    <t>ALAA44-TYRA255</t>
-  </si>
-  <si>
-    <t>LEUA183-ALAA252</t>
-  </si>
-  <si>
-    <t>TYRA96-TYRA140</t>
-  </si>
-  <si>
-    <t>ALAA131-META167</t>
-  </si>
-  <si>
-    <t>LEUA33-META58</t>
-  </si>
-  <si>
-    <t>VALA210-ARGA223</t>
-  </si>
-  <si>
-    <t>TYRA10-PHEA15</t>
-  </si>
-  <si>
-    <t>ALAA200-SERA234</t>
-  </si>
-  <si>
-    <t>ALAA44-SERA250</t>
-  </si>
-  <si>
-    <t>PHEA8-ALAA217</t>
-  </si>
-  <si>
-    <t>ALAA50-ILEA112</t>
-  </si>
-  <si>
-    <t>META135-PHEA163</t>
-  </si>
-  <si>
-    <t>ALAA207-LEUA226</t>
-  </si>
-  <si>
-    <t>THRA138-SERA160</t>
-  </si>
-  <si>
-    <t>ALAA200-SERA233</t>
-  </si>
-  <si>
-    <t>ALAA75-PHEA90</t>
-  </si>
-  <si>
-    <t>LEUA116-LEUA121</t>
-  </si>
-  <si>
-    <t>SERA250-ALAA258</t>
-  </si>
-  <si>
-    <t>SERA40-THRA51</t>
-  </si>
-  <si>
-    <t>TYRA47-ALAA246</t>
-  </si>
-  <si>
-    <t>ASNA3-SERA91</t>
-  </si>
-  <si>
-    <t>ALAA251-GLNA259</t>
-  </si>
-  <si>
-    <t>PHEA36-CYSA55</t>
-  </si>
-  <si>
-    <t>ASPA9-SERA82</t>
-  </si>
-  <si>
-    <t>ALAA251-ALAA258</t>
-  </si>
-  <si>
-    <t>ALAA50-GLNA109</t>
-  </si>
-  <si>
-    <t>VALA57-CYSA105</t>
-  </si>
-  <si>
-    <t>VALA26-ASNA66</t>
-  </si>
-  <si>
-    <t>META71-PHEA90</t>
-  </si>
-  <si>
-    <t>VALA43-ARGA48</t>
-  </si>
-  <si>
-    <t>META182-ASPA187</t>
-  </si>
-  <si>
-    <t>LEUA21-THRA228</t>
-  </si>
-  <si>
-    <t>THRA186-ILEA245</t>
-  </si>
-  <si>
-    <t>META135-PHEA164</t>
-  </si>
-  <si>
-    <t>TYRA145-LEUA153</t>
-  </si>
-  <si>
-    <t>TYRA10-GLNA14</t>
-  </si>
-  <si>
-    <t>THRA51-THRA243</t>
-  </si>
-  <si>
-    <t>TYRA76-TYRA83</t>
-  </si>
-  <si>
-    <t>VALA26-LEUA65</t>
-  </si>
-  <si>
-    <t>ALAA32-VALA236</t>
-  </si>
-  <si>
-    <t>PHEA36-SERA54</t>
-  </si>
-  <si>
-    <t>ARGA179-ASPA187</t>
-  </si>
-  <si>
-    <t>ALAA207-PHEA227</t>
-  </si>
-  <si>
-    <t>GLUA5-VALA220</t>
-  </si>
-  <si>
-    <t>ILEA150-ALAA212</t>
-  </si>
-  <si>
-    <t>THRA23-ALAA69</t>
-  </si>
-  <si>
-    <t>GLUA146-LEUA153</t>
-  </si>
-  <si>
-    <t>ALAA207-ARGA223</t>
-  </si>
-  <si>
-    <t>ILEA18-GLNA224</t>
-  </si>
-  <si>
-    <t>GLNA14-VALA221</t>
-  </si>
-  <si>
-    <t>TYRA204-ALAA230</t>
-  </si>
-  <si>
-    <t>LEUA183-GLNA249</t>
-  </si>
-  <si>
-    <t>META100-ILEA136</t>
-  </si>
-  <si>
-    <t>TYRA10-ALAA217</t>
-  </si>
-  <si>
-    <t>HISA29-META58</t>
-  </si>
-  <si>
-    <t>LEUA37-CYSA55</t>
-  </si>
-  <si>
-    <t>ILEA4-VALA147</t>
-  </si>
-  <si>
-    <t>TYRA145-GLNA152</t>
-  </si>
-  <si>
-    <t>VALA57-THRA102</t>
-  </si>
-  <si>
-    <t>VALA113-ILEA245</t>
-  </si>
-  <si>
-    <t>VALA43-SERA250</t>
-  </si>
-  <si>
-    <t>LEUA53-CYSA105</t>
-  </si>
-  <si>
-    <t>THRA138-VALA159</t>
-  </si>
-  <si>
-    <t>ALAA132-META167</t>
-  </si>
-  <si>
-    <t>VALA113-ALAA246</t>
-  </si>
-  <si>
-    <t>ALAA75-THRA89</t>
-  </si>
-  <si>
-    <t>ILEA247-ALAA258</t>
-  </si>
-  <si>
-    <t>ALAA77-GLNA86</t>
-  </si>
-  <si>
-    <t>PHEA42-ALAA258</t>
-  </si>
-  <si>
-    <t>LEUA114-ASNA178</t>
-  </si>
-  <si>
-    <t>ASPA149-GLNA152</t>
-  </si>
-  <si>
-    <t>TRPA201-SERA234</t>
-  </si>
-  <si>
-    <t>LEUA111-LEUA121</t>
-  </si>
-  <si>
-    <t>LEUA108-ALAA125</t>
-  </si>
-  <si>
-    <t>ASPA9-GLNA84</t>
-  </si>
-  <si>
-    <t>TRPA72-PHEA90</t>
-  </si>
-  <si>
-    <t>LEUA203-LEUA226</t>
-  </si>
-  <si>
-    <t>HISA29-VALA236</t>
-  </si>
-  <si>
-    <t>ILEA64-ARGA95</t>
-  </si>
-  <si>
-    <t>ALAA200-ALAA230</t>
-  </si>
-  <si>
-    <t>TRPA99-ILEA103</t>
-  </si>
-  <si>
-    <t>ALAA131-PHEA163</t>
-  </si>
-  <si>
-    <t>META182-THRA186</t>
-  </si>
-  <si>
-    <t>VALA43-ALAA246</t>
-  </si>
-  <si>
-    <t>SERA6-LEUA85</t>
-  </si>
-  <si>
-    <t>LEUA116-GLUA120</t>
-  </si>
-  <si>
-    <t>LEUA22-LEUA65</t>
-  </si>
-  <si>
-    <t>TYRA255-ALAA258</t>
-  </si>
-  <si>
-    <t>VALA79-GLNA84</t>
-  </si>
-  <si>
-    <t>VALA43-ILEA247</t>
-  </si>
-  <si>
-    <t>THRA186-THRA189</t>
-  </si>
-  <si>
-    <t>SERA250-TYRA255</t>
-  </si>
-  <si>
-    <t>TYRA96-ILEA136</t>
-  </si>
-  <si>
-    <t>THRA138-TRPA156</t>
-  </si>
-  <si>
-    <t>META135-SERA160</t>
-  </si>
-  <si>
-    <t>ASPA87-THRA89</t>
-  </si>
-  <si>
-    <t>LYSA2-VALA147</t>
-  </si>
-  <si>
-    <t>GLNA143-GLUA146</t>
-  </si>
-  <si>
-    <t>TYRA47-VALA113</t>
+    <t>TRPA123-ALAA134</t>
+  </si>
+  <si>
+    <t>HISA96-TRPA245</t>
+  </si>
+  <si>
+    <t>ALAA65-HISA94</t>
+  </si>
+  <si>
+    <t>ALAA54-ALAA77</t>
+  </si>
+  <si>
+    <t>TYRA40-LYSA261</t>
+  </si>
+  <si>
+    <t>HISA17-ALAA23</t>
+  </si>
+  <si>
+    <t>TYRA114-PHEA147</t>
+  </si>
+  <si>
+    <t>ASPA190-PHEA260</t>
+  </si>
+  <si>
+    <t>TYRA88-HISA122</t>
+  </si>
+  <si>
+    <t>TYRA128-ALAA134</t>
+  </si>
+  <si>
+    <t>SERA99-VALA242</t>
+  </si>
+  <si>
+    <t>TRPA97-ALAA116</t>
+  </si>
+  <si>
+    <t>THRA169-GLUA234</t>
+  </si>
+  <si>
+    <t>SERA105-GLUA117</t>
+  </si>
+  <si>
+    <t>VALA218-GLNA222</t>
+  </si>
+  <si>
+    <t>VALA31-LEUA251</t>
+  </si>
+  <si>
+    <t>ASPA72-ARGA89</t>
+  </si>
+  <si>
+    <t>TYRA194-ILEA256</t>
+  </si>
+  <si>
+    <t>ALAA153-SERA219</t>
+  </si>
+  <si>
+    <t>TYRA51-ARGA182</t>
+  </si>
+  <si>
+    <t>ASNA67-GLNA92</t>
+  </si>
+  <si>
+    <t>TYRA128-LYSA133</t>
+  </si>
+  <si>
+    <t>THRA199-ARGA246</t>
+  </si>
+  <si>
+    <t>ALAA38-ALAA258</t>
+  </si>
+  <si>
+    <t>TRPA16-ALAA23</t>
+  </si>
+  <si>
+    <t>ILEA167-ALAA174</t>
+  </si>
+  <si>
+    <t>ASPA32-ALAA248</t>
+  </si>
+  <si>
+    <t>TRPA123-PHEA131</t>
+  </si>
+  <si>
+    <t>ASPA72-ILEA91</t>
+  </si>
+  <si>
+    <t>ALAA115-VALA150</t>
+  </si>
+  <si>
+    <t>GLUA106-TRPA245</t>
+  </si>
+  <si>
+    <t>ASNA232-GLUA236</t>
+  </si>
+  <si>
+    <t>ASNA67-HISA94</t>
+  </si>
+  <si>
+    <t>LEUA60-SERA173</t>
+  </si>
+  <si>
+    <t>TYRA88-ALAA142</t>
+  </si>
+  <si>
+    <t>HISA17-LYSA24</t>
+  </si>
+  <si>
+    <t>SERA105-PHEA147</t>
+  </si>
+  <si>
+    <t>SERA166-ALAA174</t>
+  </si>
+  <si>
+    <t>ILEA167-LYSA172</t>
+  </si>
+  <si>
+    <t>PHEA231-META241</t>
+  </si>
+  <si>
+    <t>ILEA59-PHEA176</t>
+  </si>
+  <si>
+    <t>PHEA93-LEUA120</t>
+  </si>
+  <si>
+    <t>TYRA7-ASNA244</t>
+  </si>
+  <si>
+    <t>ASNA61-ILEA167</t>
+  </si>
+  <si>
+    <t>TRPA5-TRPA16</t>
+  </si>
+  <si>
+    <t>VALA161-LYSA225</t>
+  </si>
+  <si>
+    <t>THRA35-ASPA110</t>
+  </si>
+  <si>
+    <t>ASPA41-LYSA257</t>
+  </si>
+  <si>
+    <t>VALA150-SERA220</t>
+  </si>
+  <si>
+    <t>SERA99-ASPA243</t>
+  </si>
+  <si>
+    <t>PHEA95-ALAA116</t>
+  </si>
+  <si>
+    <t>VALA78-THRA87</t>
+  </si>
+  <si>
+    <t>GLUA106-GLUA117</t>
+  </si>
+  <si>
+    <t>GLNA28-GLNA249</t>
+  </si>
+  <si>
+    <t>SERA197-GLUA205</t>
+  </si>
+  <si>
+    <t>GLUA26-LYSA252</t>
+  </si>
+  <si>
+    <t>ARGA27-GLUA205</t>
+  </si>
+  <si>
+    <t>ASPA75-VALA78</t>
+  </si>
+  <si>
+    <t>TYRA51-ALAA77</t>
+  </si>
+  <si>
+    <t>VALA135-LEUA204</t>
+  </si>
+  <si>
+    <t>LYSA154-LEUA157</t>
+  </si>
+  <si>
+    <t>LYSA80-THRA87</t>
+  </si>
+  <si>
+    <t>ARGA227-VALA242</t>
+  </si>
+  <si>
+    <t>ASNA124-ALAA134</t>
+  </si>
+  <si>
+    <t>TYRA191-ILEA210</t>
+  </si>
+  <si>
+    <t>LEUA44-SERA259</t>
+  </si>
+  <si>
+    <t>VALA135-CYSA206</t>
+  </si>
+  <si>
+    <t>LEUA57-ASPA71</t>
+  </si>
+  <si>
+    <t>ARGA58-SERA173</t>
+  </si>
+  <si>
+    <t>TRPA192-ILEA256</t>
+  </si>
+  <si>
+    <t>SERA105-LYSA113</t>
+  </si>
+  <si>
+    <t>TYRA114-LYSA149</t>
+  </si>
+  <si>
+    <t>ASPA190-LYSA213</t>
+  </si>
+  <si>
+    <t>SERA29-SERA197</t>
+  </si>
+  <si>
+    <t>LYSA154-VALA218</t>
+  </si>
+  <si>
+    <t>ASPA190-SERA259</t>
+  </si>
+  <si>
+    <t>SERA188-GLUA214</t>
+  </si>
+  <si>
+    <t>ASNA61-PHEA66</t>
+  </si>
+  <si>
+    <t>PHEA20-ALAA23</t>
+  </si>
+  <si>
+    <t>ILEA59-VALA68</t>
+  </si>
+  <si>
+    <t>LEUA47-LEUA189</t>
+  </si>
+  <si>
+    <t>GLUA69-GLNA92</t>
+  </si>
+  <si>
+    <t>THRA108-LYSA113</t>
+  </si>
+  <si>
+    <t>HISA119-VALA143</t>
+  </si>
+  <si>
+    <t>ASPA75-ARGA89</t>
+  </si>
+  <si>
+    <t>VALA161-GLNA222</t>
+  </si>
+  <si>
+    <t>TYRA51-ALAA54</t>
+  </si>
+  <si>
+    <t>THRA193-ILEA210</t>
+  </si>
+  <si>
+    <t>ASNA230-GLUA238</t>
+  </si>
+  <si>
+    <t>HISA64-ASNA244</t>
+  </si>
+  <si>
+    <t>LEUA204-CYSA206</t>
+  </si>
+  <si>
+    <t>SERA56-PHEA179</t>
+  </si>
+  <si>
+    <t>LEUA90-HISA122</t>
+  </si>
+  <si>
+    <t>ASPA32-LYSA111</t>
+  </si>
+  <si>
+    <t>SERA219-GLNA222</t>
+  </si>
+  <si>
+    <t>TYRA191-LYSA213</t>
+  </si>
+  <si>
+    <t>LEUA148-VALA218</t>
+  </si>
+  <si>
+    <t>ASPA34-THRA37</t>
+  </si>
+  <si>
+    <t>SERA29-THRA199</t>
+  </si>
+  <si>
+    <t>TYRA191-LEUA212</t>
+  </si>
+  <si>
+    <t>ALAA77-LEUA90</t>
+  </si>
+  <si>
+    <t>GLNA53-LYSA76</t>
   </si>
 </sst>
 </file>
@@ -694,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -725,10 +722,10 @@
         <v>0.997</v>
       </c>
       <c r="D2">
-        <v>-69.30710000000001</v>
+        <v>-32.0042</v>
       </c>
       <c r="E2">
-        <v>0.9801</v>
+        <v>0.6009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -739,13 +736,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.997</v>
+        <v>0.994</v>
       </c>
       <c r="D3">
-        <v>-52.3002</v>
+        <v>-64.5042</v>
       </c>
       <c r="E3">
-        <v>-1.8378</v>
+        <v>0.5238</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -756,13 +753,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="D4">
-        <v>-50.1152</v>
+        <v>-44.0935</v>
       </c>
       <c r="E4">
-        <v>1.2233</v>
+        <v>-0.2943</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -773,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="D5">
-        <v>-43.2024</v>
+        <v>-41.2027</v>
       </c>
       <c r="E5">
-        <v>1.8369</v>
+        <v>-1.0338</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -790,13 +787,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="D6">
-        <v>-68.843</v>
+        <v>-69.4205</v>
       </c>
       <c r="E6">
-        <v>-0.0369</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -807,13 +804,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="D7">
-        <v>-54.9035</v>
+        <v>-24.445</v>
       </c>
       <c r="E7">
-        <v>1.2657</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -824,13 +821,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="D8">
-        <v>-49.2926</v>
+        <v>-45.7049</v>
       </c>
       <c r="E8">
-        <v>-0.5886</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -841,13 +838,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.996</v>
+        <v>0.985</v>
       </c>
       <c r="D9">
-        <v>-46.7901</v>
+        <v>-55.083</v>
       </c>
       <c r="E9">
-        <v>1.1875</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -858,13 +855,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.996</v>
+        <v>0.983</v>
       </c>
       <c r="D10">
-        <v>-42.2426</v>
+        <v>-46.0772</v>
       </c>
       <c r="E10">
-        <v>-0.4372</v>
+        <v>-0.2097</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -875,81 +872,81 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.996</v>
+        <v>0.983</v>
       </c>
       <c r="D11">
-        <v>-34.0875</v>
+        <v>-24.445</v>
       </c>
       <c r="E11">
-        <v>-0.2538</v>
+        <v>0.4338</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="D12">
-        <v>-22.1713</v>
+        <v>-63.9916</v>
       </c>
       <c r="E12">
-        <v>0.0358</v>
+        <v>0.5467</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.995</v>
+        <v>0.975</v>
       </c>
       <c r="D13">
-        <v>-46.0772</v>
+        <v>-38.8201</v>
       </c>
       <c r="E13">
-        <v>-1.1982</v>
+        <v>-0.5145</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.995</v>
+        <v>0.972</v>
       </c>
       <c r="D14">
-        <v>-68.54389999999999</v>
+        <v>-54.1588</v>
       </c>
       <c r="E14">
-        <v>-0.5306999999999999</v>
+        <v>-0.475</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>0.995</v>
+        <v>0.969</v>
       </c>
       <c r="D15">
-        <v>-68.7243</v>
+        <v>-33.0893</v>
       </c>
       <c r="E15">
-        <v>0.4682</v>
+        <v>-1.2555</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -960,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>0.994</v>
+        <v>0.966</v>
       </c>
       <c r="D16">
-        <v>-53.5695</v>
+        <v>-19.3885</v>
       </c>
       <c r="E16">
-        <v>1.4328</v>
+        <v>-0.1686</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -977,13 +974,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>0.994</v>
+        <v>0.962</v>
       </c>
       <c r="D17">
-        <v>-43.6559</v>
+        <v>-69.3639</v>
       </c>
       <c r="E17">
-        <v>-0.3515</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -994,13 +991,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0.993</v>
+        <v>0.962</v>
       </c>
       <c r="D18">
-        <v>-38.8201</v>
+        <v>-37.433</v>
       </c>
       <c r="E18">
-        <v>0.2346</v>
+        <v>-1.503</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1011,13 +1008,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>0.992</v>
+        <v>0.959</v>
       </c>
       <c r="D19">
-        <v>-40.6484</v>
+        <v>-53.5695</v>
       </c>
       <c r="E19">
-        <v>0.0586</v>
+        <v>-0.4034</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1028,13 +1025,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>0.991</v>
+        <v>0.956</v>
       </c>
       <c r="D20">
-        <v>-45.7049</v>
+        <v>-54.3492</v>
       </c>
       <c r="E20">
-        <v>-1.7996</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1045,13 +1042,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>0.99</v>
+        <v>0.955</v>
       </c>
       <c r="D21">
-        <v>-35.8721</v>
+        <v>-62.8986</v>
       </c>
       <c r="E21">
-        <v>-0.6646</v>
+        <v>-0.7828000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1062,13 +1059,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>0.99</v>
+        <v>0.951</v>
       </c>
       <c r="D22">
-        <v>-22.1713</v>
+        <v>-42.2426</v>
       </c>
       <c r="E22">
-        <v>-0.9806</v>
+        <v>-0.8263</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1079,13 +1076,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>0.989</v>
+        <v>0.95</v>
       </c>
       <c r="D23">
-        <v>-28.0327</v>
+        <v>-22.1713</v>
       </c>
       <c r="E23">
-        <v>0.2924</v>
+        <v>-0.8028</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1096,13 +1093,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>0.984</v>
+        <v>0.947</v>
       </c>
       <c r="D24">
-        <v>-32.0042</v>
+        <v>-50.1152</v>
       </c>
       <c r="E24">
-        <v>0.2829</v>
+        <v>-1.0371</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1113,13 +1110,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>0.982</v>
+        <v>0.945</v>
       </c>
       <c r="D25">
-        <v>-68.11279999999999</v>
+        <v>-69.3639</v>
       </c>
       <c r="E25">
-        <v>0.9919</v>
+        <v>-1.2134</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1130,13 +1127,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>0.982</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D26">
-        <v>-57.9369</v>
+        <v>-26.3674</v>
       </c>
       <c r="E26">
-        <v>0.028</v>
+        <v>0.9277</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1147,13 +1144,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>0.979</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D27">
-        <v>-28.0327</v>
+        <v>-26.3674</v>
       </c>
       <c r="E27">
-        <v>0.0162</v>
+        <v>-0.2937</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1164,13 +1161,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>0.978</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="D28">
-        <v>-38.8201</v>
+        <v>-69.13509999999999</v>
       </c>
       <c r="E28">
-        <v>-0.2533</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1181,13 +1178,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>0.976</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D29">
-        <v>-55.6063</v>
+        <v>-28.0327</v>
       </c>
       <c r="E29">
-        <v>-0.579</v>
+        <v>-0.5183</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1198,13 +1195,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>0.976</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D30">
-        <v>-26.3674</v>
+        <v>-38.8201</v>
       </c>
       <c r="E30">
-        <v>2.4935</v>
+        <v>-1.2486</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1215,13 +1212,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>0.974</v>
+        <v>0.93</v>
       </c>
       <c r="D31">
-        <v>-52.951</v>
+        <v>-46.4387</v>
       </c>
       <c r="E31">
-        <v>-0.0655</v>
+        <v>0.3724</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1232,13 +1229,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>0.972</v>
+        <v>0.929</v>
       </c>
       <c r="D32">
-        <v>-50.3777</v>
+        <v>-63.6378</v>
       </c>
       <c r="E32">
-        <v>0.0757</v>
+        <v>-1.3161</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1249,13 +1246,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>0.971</v>
+        <v>0.926</v>
       </c>
       <c r="D33">
-        <v>-48.104</v>
+        <v>-19.3885</v>
       </c>
       <c r="E33">
-        <v>-0.0977</v>
+        <v>-1.6755</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1266,13 +1263,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>0.967</v>
+        <v>0.923</v>
       </c>
       <c r="D34">
-        <v>-38.8201</v>
+        <v>-43.2024</v>
       </c>
       <c r="E34">
-        <v>-0.8646</v>
+        <v>0.3848</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1283,13 +1280,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>0.967</v>
+        <v>0.92</v>
       </c>
       <c r="D35">
-        <v>-22.1713</v>
+        <v>-61.0553</v>
       </c>
       <c r="E35">
-        <v>-0.4393</v>
+        <v>0.0219</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1300,13 +1297,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>0.966</v>
+        <v>0.919</v>
       </c>
       <c r="D36">
-        <v>-22.1713</v>
+        <v>-51.8466</v>
       </c>
       <c r="E36">
-        <v>-0.0987</v>
+        <v>-0.3445</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1317,13 +1314,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>0.964</v>
+        <v>0.919</v>
       </c>
       <c r="D37">
-        <v>-68.60429999999999</v>
+        <v>-26.3674</v>
       </c>
       <c r="E37">
-        <v>-0.3456</v>
+        <v>-1.4185</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1334,13 +1331,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>0.964</v>
+        <v>0.918</v>
       </c>
       <c r="D38">
-        <v>-52.951</v>
+        <v>-48.7125</v>
       </c>
       <c r="E38">
-        <v>0.2835</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1351,13 +1348,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>0.963</v>
+        <v>0.916</v>
       </c>
       <c r="D39">
-        <v>-44.0935</v>
+        <v>-28.0327</v>
       </c>
       <c r="E39">
-        <v>-0.8662</v>
+        <v>-0.845</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1368,13 +1365,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>0.96</v>
+        <v>0.916</v>
       </c>
       <c r="D40">
-        <v>-28.0327</v>
+        <v>-22.1713</v>
       </c>
       <c r="E40">
-        <v>-0.33</v>
+        <v>0.3549</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1385,13 +1382,13 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>0.95</v>
+        <v>0.914</v>
       </c>
       <c r="D41">
-        <v>-19.3885</v>
+        <v>-30.8155</v>
       </c>
       <c r="E41">
-        <v>-1.1103</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1402,13 +1399,13 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>0.947</v>
+        <v>0.901</v>
       </c>
       <c r="D42">
-        <v>-67.6662</v>
+        <v>-61.4891</v>
       </c>
       <c r="E42">
-        <v>-0.4722</v>
+        <v>1.3843</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1419,13 +1416,13 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>0.9419999999999999</v>
+        <v>0.891</v>
       </c>
       <c r="D43">
-        <v>-26.3674</v>
+        <v>-43.2024</v>
       </c>
       <c r="E43">
-        <v>0.2135</v>
+        <v>0.4038</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1436,13 +1433,13 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>0.9409999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="D44">
-        <v>-47.7883</v>
+        <v>-70.29219999999999</v>
       </c>
       <c r="E44">
-        <v>0.8186</v>
+        <v>-2.4116</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1453,13 +1450,13 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>0.9399999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="D45">
-        <v>-68.42230000000001</v>
+        <v>-60.2577</v>
       </c>
       <c r="E45">
-        <v>-0.0221</v>
+        <v>-0.3753</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1470,13 +1467,13 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>0.9340000000000001</v>
+        <v>0.869</v>
       </c>
       <c r="D46">
-        <v>-38.1458</v>
+        <v>-32.0042</v>
       </c>
       <c r="E46">
-        <v>-0.7059</v>
+        <v>1.0035</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1487,13 +1484,13 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>0.93</v>
+        <v>0.867</v>
       </c>
       <c r="D47">
-        <v>-28.0327</v>
+        <v>-53.9654</v>
       </c>
       <c r="E47">
-        <v>-1.6034</v>
+        <v>0.8856000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1504,13 +1501,13 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>0.928</v>
+        <v>0.862</v>
       </c>
       <c r="D48">
-        <v>-39.4598</v>
+        <v>-55.9434</v>
       </c>
       <c r="E48">
-        <v>-0.6381</v>
+        <v>0.2081</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1521,13 +1518,13 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>0.918</v>
+        <v>0.857</v>
       </c>
       <c r="D49">
-        <v>-69.0772</v>
+        <v>-69.13509999999999</v>
       </c>
       <c r="E49">
-        <v>-1.8216</v>
+        <v>0.1716</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1538,13 +1535,13 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>0.916</v>
+        <v>0.845</v>
       </c>
       <c r="D50">
-        <v>-53.5695</v>
+        <v>-55.083</v>
       </c>
       <c r="E50">
-        <v>-0.2667</v>
+        <v>0.8586</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1555,64 +1552,64 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>0.906</v>
+        <v>0.835</v>
       </c>
       <c r="D51">
-        <v>-49.847</v>
+        <v>-64.07850000000001</v>
       </c>
       <c r="E51">
-        <v>1.2245</v>
+        <v>-0.1529</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
       </c>
       <c r="C52">
-        <v>0.903</v>
+        <v>0.835</v>
       </c>
       <c r="D52">
-        <v>-26.3674</v>
+        <v>-40.0682</v>
       </c>
       <c r="E52">
-        <v>-1.3212</v>
+        <v>-0.2286</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
       <c r="C53">
-        <v>0.903</v>
+        <v>0.825</v>
       </c>
       <c r="D53">
-        <v>-36.677</v>
+        <v>-29.5016</v>
       </c>
       <c r="E53">
-        <v>-0.9811</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
       </c>
       <c r="C54">
-        <v>0.898</v>
+        <v>0.825</v>
       </c>
       <c r="D54">
-        <v>-68.54389999999999</v>
+        <v>-32.0042</v>
       </c>
       <c r="E54">
-        <v>-0.9188</v>
+        <v>-2.2365</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1623,13 +1620,13 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>0.892</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="D55">
-        <v>-68.60429999999999</v>
+        <v>-69.4205</v>
       </c>
       <c r="E55">
-        <v>-0.3501</v>
+        <v>-1.0363</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1640,13 +1637,13 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>0.891</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D56">
-        <v>-42.7317</v>
+        <v>-28.0327</v>
       </c>
       <c r="E56">
-        <v>1.4545</v>
+        <v>-1.4614</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1657,13 +1654,13 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>0.876</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D57">
-        <v>-54.3492</v>
+        <v>-69.6995</v>
       </c>
       <c r="E57">
-        <v>-1.2184</v>
+        <v>-0.5238</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1674,13 +1671,13 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>0.875</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="D58">
-        <v>-46.7901</v>
+        <v>-66.72199999999999</v>
       </c>
       <c r="E58">
-        <v>0.0466</v>
+        <v>-1.3652</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1691,13 +1688,13 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>0.874</v>
+        <v>0.793</v>
       </c>
       <c r="D59">
-        <v>-68.60429999999999</v>
+        <v>-15.8008</v>
       </c>
       <c r="E59">
-        <v>0.3975</v>
+        <v>-0.1355</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1708,13 +1705,13 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>0.872</v>
+        <v>0.788</v>
       </c>
       <c r="D60">
-        <v>-44.0935</v>
+        <v>-42.7317</v>
       </c>
       <c r="E60">
-        <v>-1.9195</v>
+        <v>-0.6506999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1725,13 +1722,13 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>0.872</v>
+        <v>0.774</v>
       </c>
       <c r="D61">
-        <v>-38.1458</v>
+        <v>-54.9035</v>
       </c>
       <c r="E61">
-        <v>-0.3218</v>
+        <v>-0.7945</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1742,13 +1739,13 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>0.87</v>
+        <v>0.766</v>
       </c>
       <c r="D62">
-        <v>-63.9916</v>
+        <v>-15.8008</v>
       </c>
       <c r="E62">
-        <v>0.3174</v>
+        <v>-1.4394</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1759,13 +1756,13 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>0.867</v>
+        <v>0.758</v>
       </c>
       <c r="D63">
         <v>-26.3674</v>
       </c>
       <c r="E63">
-        <v>-1.3472</v>
+        <v>-1.0829</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1776,13 +1773,13 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>0.865</v>
+        <v>0.756</v>
       </c>
       <c r="D64">
-        <v>-49.5729</v>
+        <v>-35.8721</v>
       </c>
       <c r="E64">
-        <v>-0.6631</v>
+        <v>0.3176</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1793,13 +1790,13 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>0.861</v>
+        <v>0.735</v>
       </c>
       <c r="D65">
-        <v>-62.9934</v>
+        <v>-30.8155</v>
       </c>
       <c r="E65">
-        <v>0.06809999999999999</v>
+        <v>0.6456</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1810,13 +1807,13 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>0.853</v>
+        <v>0.733</v>
       </c>
       <c r="D66">
-        <v>-68.60429999999999</v>
+        <v>-38.8201</v>
       </c>
       <c r="E66">
-        <v>-0.7386</v>
+        <v>0.4556</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1827,13 +1824,13 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>0.85</v>
+        <v>0.731</v>
       </c>
       <c r="D67">
-        <v>-51.376</v>
+        <v>-69.0772</v>
       </c>
       <c r="E67">
-        <v>-0.9032</v>
+        <v>0.1355</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1844,13 +1841,13 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>0.846</v>
+        <v>0.724</v>
       </c>
       <c r="D68">
-        <v>-40.0682</v>
+        <v>-55.2599</v>
       </c>
       <c r="E68">
-        <v>1.2103</v>
+        <v>-0.2712</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1861,13 +1858,13 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>0.843</v>
+        <v>0.724</v>
       </c>
       <c r="D69">
-        <v>-46.4387</v>
+        <v>-35.0117</v>
       </c>
       <c r="E69">
-        <v>0.9071</v>
+        <v>-0.1466</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1878,13 +1875,13 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>0.829</v>
+        <v>0.716</v>
       </c>
       <c r="D70">
-        <v>-63.0875</v>
+        <v>-61.274</v>
       </c>
       <c r="E70">
-        <v>0.5179</v>
+        <v>-0.3676</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1895,13 +1892,13 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>0.827</v>
+        <v>0.715</v>
       </c>
       <c r="D71">
-        <v>-35.0117</v>
+        <v>-53.9654</v>
       </c>
       <c r="E71">
-        <v>-0.0796</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1912,13 +1909,13 @@
         <v>74</v>
       </c>
       <c r="C72">
-        <v>0.8159999999999999</v>
+        <v>0.707</v>
       </c>
       <c r="D72">
-        <v>-32.0042</v>
+        <v>-28.0327</v>
       </c>
       <c r="E72">
-        <v>0.9653</v>
+        <v>-0.4978</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1929,13 +1926,13 @@
         <v>75</v>
       </c>
       <c r="C73">
-        <v>0.8129999999999999</v>
+        <v>0.702</v>
       </c>
       <c r="D73">
-        <v>-29.5016</v>
+        <v>-46.4387</v>
       </c>
       <c r="E73">
-        <v>-0.5495</v>
+        <v>-0.5603</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1946,13 +1943,13 @@
         <v>76</v>
       </c>
       <c r="C74">
-        <v>0.765</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D74">
-        <v>-69.13509999999999</v>
+        <v>-41.2027</v>
       </c>
       <c r="E74">
-        <v>1.128</v>
+        <v>-1.4705</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1963,13 +1960,13 @@
         <v>77</v>
       </c>
       <c r="C75">
-        <v>0.763</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="D75">
-        <v>-53.9654</v>
+        <v>-66.001</v>
       </c>
       <c r="E75">
-        <v>-0.8241000000000001</v>
+        <v>-0.2132</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1980,13 +1977,13 @@
         <v>78</v>
       </c>
       <c r="C76">
-        <v>0.761</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="D76">
-        <v>-15.8008</v>
+        <v>-53.9654</v>
       </c>
       <c r="E76">
-        <v>-1.3759</v>
+        <v>-1.8401</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1997,13 +1994,13 @@
         <v>79</v>
       </c>
       <c r="C77">
-        <v>0.745</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="D77">
-        <v>-45.7049</v>
+        <v>-54.9035</v>
       </c>
       <c r="E77">
-        <v>-1.6063</v>
+        <v>-0.611</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2014,47 +2011,47 @@
         <v>80</v>
       </c>
       <c r="C78">
-        <v>0.723</v>
+        <v>0.679</v>
       </c>
       <c r="D78">
-        <v>-30.8155</v>
+        <v>-42.7317</v>
       </c>
       <c r="E78">
-        <v>0.5444</v>
+        <v>-0.7985</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>81</v>
       </c>
       <c r="C79">
-        <v>0.707</v>
+        <v>0.675</v>
       </c>
       <c r="D79">
-        <v>-37.433</v>
+        <v>-22.1713</v>
       </c>
       <c r="E79">
-        <v>1.5952</v>
+        <v>-0.5446</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>82</v>
       </c>
       <c r="C80">
-        <v>0.707</v>
+        <v>0.666</v>
       </c>
       <c r="D80">
-        <v>-55.9434</v>
+        <v>-15.8008</v>
       </c>
       <c r="E80">
-        <v>-0.8386</v>
+        <v>-0.4212</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2065,13 +2062,13 @@
         <v>83</v>
       </c>
       <c r="C81">
-        <v>0.7</v>
+        <v>0.663</v>
       </c>
       <c r="D81">
-        <v>-38.1458</v>
+        <v>-29.5016</v>
       </c>
       <c r="E81">
-        <v>-0.9467</v>
+        <v>1.2352</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2082,13 +2079,13 @@
         <v>84</v>
       </c>
       <c r="C82">
-        <v>0.696</v>
+        <v>0.66</v>
       </c>
       <c r="D82">
-        <v>-41.2027</v>
+        <v>-63.9041</v>
       </c>
       <c r="E82">
-        <v>1.1109</v>
+        <v>0.2196</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2099,13 +2096,13 @@
         <v>85</v>
       </c>
       <c r="C83">
-        <v>0.664</v>
+        <v>0.66</v>
       </c>
       <c r="D83">
-        <v>-68.60429999999999</v>
+        <v>-41.2027</v>
       </c>
       <c r="E83">
-        <v>-2.3351</v>
+        <v>-1.0374</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2119,10 +2116,10 @@
         <v>0.66</v>
       </c>
       <c r="D84">
-        <v>-44.9253</v>
+        <v>-22.1713</v>
       </c>
       <c r="E84">
-        <v>-1.5673</v>
+        <v>-0.1986</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2133,13 +2130,13 @@
         <v>87</v>
       </c>
       <c r="C85">
-        <v>0.645</v>
+        <v>0.65</v>
       </c>
       <c r="D85">
-        <v>-44.5163</v>
+        <v>-41.7335</v>
       </c>
       <c r="E85">
-        <v>0.5432</v>
+        <v>-0.2277</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2150,13 +2147,13 @@
         <v>88</v>
       </c>
       <c r="C86">
-        <v>0.644</v>
+        <v>0.635</v>
       </c>
       <c r="D86">
-        <v>-19.3885</v>
+        <v>-35.0117</v>
       </c>
       <c r="E86">
-        <v>0.2708</v>
+        <v>-0.944</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2167,13 +2164,13 @@
         <v>89</v>
       </c>
       <c r="C87">
-        <v>0.639</v>
+        <v>0.625</v>
       </c>
       <c r="D87">
-        <v>-45.3212</v>
+        <v>-53.3667</v>
       </c>
       <c r="E87">
-        <v>0.1516</v>
+        <v>0.7682</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2184,13 +2181,13 @@
         <v>90</v>
       </c>
       <c r="C88">
-        <v>0.639</v>
+        <v>0.623</v>
       </c>
       <c r="D88">
-        <v>-19.3885</v>
+        <v>-15.8008</v>
       </c>
       <c r="E88">
-        <v>0.4113</v>
+        <v>-0.6665</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2201,13 +2198,13 @@
         <v>91</v>
       </c>
       <c r="C89">
-        <v>0.634</v>
+        <v>0.613</v>
       </c>
       <c r="D89">
-        <v>-68.361</v>
+        <v>-37.433</v>
       </c>
       <c r="E89">
-        <v>0.9369</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2218,13 +2215,13 @@
         <v>92</v>
       </c>
       <c r="C90">
-        <v>0.631</v>
+        <v>0.597</v>
       </c>
       <c r="D90">
-        <v>-56.5914</v>
+        <v>-28.0327</v>
       </c>
       <c r="E90">
-        <v>-0.1728</v>
+        <v>-0.3098</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2235,13 +2232,13 @@
         <v>93</v>
       </c>
       <c r="C91">
-        <v>0.627</v>
+        <v>0.579</v>
       </c>
       <c r="D91">
-        <v>-19.3885</v>
+        <v>-66.8614</v>
       </c>
       <c r="E91">
-        <v>-1.5308</v>
+        <v>-1.5882</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2252,13 +2249,13 @@
         <v>94</v>
       </c>
       <c r="C92">
-        <v>0.614</v>
+        <v>0.576</v>
       </c>
       <c r="D92">
-        <v>-49.0059</v>
+        <v>-10.7442</v>
       </c>
       <c r="E92">
-        <v>0.2081</v>
+        <v>-0.5233</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2269,13 +2266,13 @@
         <v>95</v>
       </c>
       <c r="C93">
-        <v>0.613</v>
+        <v>0.575</v>
       </c>
       <c r="D93">
-        <v>-15.8008</v>
+        <v>-62.1128</v>
       </c>
       <c r="E93">
-        <v>0.7862</v>
+        <v>0.3369</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2286,13 +2283,13 @@
         <v>96</v>
       </c>
       <c r="C94">
-        <v>0.609</v>
+        <v>0.572</v>
       </c>
       <c r="D94">
-        <v>-22.1713</v>
+        <v>-45.3212</v>
       </c>
       <c r="E94">
-        <v>-0.0482</v>
+        <v>-0.3375</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2303,13 +2300,13 @@
         <v>97</v>
       </c>
       <c r="C95">
-        <v>0.585</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="D95">
-        <v>-68.42230000000001</v>
+        <v>-56.5914</v>
       </c>
       <c r="E95">
-        <v>-0.06569999999999999</v>
+        <v>-0.6143</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2326,7 +2323,7 @@
         <v>-15.8008</v>
       </c>
       <c r="E96">
-        <v>-0.0257</v>
+        <v>-0.06660000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2337,13 +2334,13 @@
         <v>99</v>
       </c>
       <c r="C97">
-        <v>0.5590000000000001</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D97">
-        <v>-22.1713</v>
+        <v>-40.6484</v>
       </c>
       <c r="E97">
-        <v>-0.9776</v>
+        <v>-1.0801</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2354,13 +2351,13 @@
         <v>100</v>
       </c>
       <c r="C98">
-        <v>0.548</v>
+        <v>0.55</v>
       </c>
       <c r="D98">
-        <v>-48.104</v>
+        <v>-55.083</v>
       </c>
       <c r="E98">
-        <v>-0.0806</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2371,13 +2368,13 @@
         <v>101</v>
       </c>
       <c r="C99">
-        <v>0.543</v>
+        <v>0.533</v>
       </c>
       <c r="D99">
-        <v>-38.1458</v>
+        <v>-15.8008</v>
       </c>
       <c r="E99">
-        <v>-0.5993000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2388,13 +2385,13 @@
         <v>102</v>
       </c>
       <c r="C100">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="D100">
-        <v>-42.2426</v>
+        <v>-66.1485</v>
       </c>
       <c r="E100">
-        <v>-0.009900000000000001</v>
+        <v>-0.1955</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2405,13 +2402,13 @@
         <v>103</v>
       </c>
       <c r="C101">
-        <v>0.54</v>
+        <v>0.509</v>
       </c>
       <c r="D101">
-        <v>-10.7442</v>
+        <v>-40.0682</v>
       </c>
       <c r="E101">
-        <v>-0.3195</v>
+        <v>0.2965</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2422,13 +2419,13 @@
         <v>104</v>
       </c>
       <c r="C102">
-        <v>0.527</v>
+        <v>0.506</v>
       </c>
       <c r="D102">
-        <v>-64.1648</v>
+        <v>-34.0875</v>
       </c>
       <c r="E102">
-        <v>0.3316</v>
+        <v>-0.5306</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2439,30 +2436,13 @@
         <v>105</v>
       </c>
       <c r="C103">
-        <v>0.518</v>
+        <v>0.502</v>
       </c>
       <c r="D103">
-        <v>-15.8008</v>
+        <v>-41.2027</v>
       </c>
       <c r="E103">
-        <v>-1.8738</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>106</v>
-      </c>
-      <c r="C104">
-        <v>0.517</v>
-      </c>
-      <c r="D104">
-        <v>-54.3492</v>
-      </c>
-      <c r="E104">
-        <v>-0.3698</v>
+        <v>-0.2292</v>
       </c>
     </row>
   </sheetData>
@@ -2472,7 +2452,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2494,614 +2474,614 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C2">
-        <v>0.54</v>
+        <v>0.576</v>
       </c>
       <c r="D2">
         <v>-10.7442</v>
       </c>
       <c r="E2">
-        <v>-0.3195</v>
+        <v>-0.5233</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C3">
-        <v>0.761</v>
+        <v>0.793</v>
       </c>
       <c r="D3">
         <v>-15.8008</v>
       </c>
       <c r="E3">
-        <v>-1.3759</v>
+        <v>-0.1355</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C4">
-        <v>0.518</v>
+        <v>0.666</v>
       </c>
       <c r="D4">
         <v>-15.8008</v>
       </c>
       <c r="E4">
-        <v>-1.8738</v>
+        <v>-0.4212</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C5">
-        <v>0.5639999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="D5">
         <v>-15.8008</v>
       </c>
       <c r="E5">
-        <v>-0.0257</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C6">
-        <v>0.613</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="D6">
         <v>-15.8008</v>
       </c>
       <c r="E6">
-        <v>0.7862</v>
+        <v>-0.06660000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C7">
-        <v>0.644</v>
+        <v>0.623</v>
       </c>
       <c r="D7">
-        <v>-19.3885</v>
+        <v>-15.8008</v>
       </c>
       <c r="E7">
-        <v>0.2708</v>
+        <v>-0.6665</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>0.639</v>
+        <v>0.766</v>
       </c>
       <c r="D8">
-        <v>-19.3885</v>
+        <v>-15.8008</v>
       </c>
       <c r="E8">
-        <v>0.4113</v>
+        <v>-1.4394</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>0.627</v>
+        <v>0.926</v>
       </c>
       <c r="D9">
         <v>-19.3885</v>
       </c>
       <c r="E9">
-        <v>-1.5308</v>
+        <v>-1.6755</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>0.95</v>
+        <v>0.966</v>
       </c>
       <c r="D10">
         <v>-19.3885</v>
       </c>
       <c r="E10">
-        <v>-1.1103</v>
+        <v>-0.1686</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>0.99</v>
+        <v>0.916</v>
       </c>
       <c r="D11">
         <v>-22.1713</v>
       </c>
       <c r="E11">
-        <v>-0.9806</v>
+        <v>0.3549</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C12">
-        <v>0.609</v>
+        <v>0.675</v>
       </c>
       <c r="D12">
         <v>-22.1713</v>
       </c>
       <c r="E12">
-        <v>-0.0482</v>
+        <v>-0.5446</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C13">
-        <v>0.966</v>
+        <v>0.66</v>
       </c>
       <c r="D13">
         <v>-22.1713</v>
       </c>
       <c r="E13">
-        <v>-0.0987</v>
+        <v>-0.1986</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>0.995</v>
+        <v>0.95</v>
       </c>
       <c r="D14">
         <v>-22.1713</v>
       </c>
       <c r="E14">
-        <v>0.0358</v>
+        <v>-0.8028</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>0.967</v>
+        <v>0.983</v>
       </c>
       <c r="D15">
-        <v>-22.1713</v>
+        <v>-24.445</v>
       </c>
       <c r="E15">
-        <v>-0.4393</v>
+        <v>0.4338</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>0.5590000000000001</v>
+        <v>0.988</v>
       </c>
       <c r="D16">
-        <v>-22.1713</v>
+        <v>-24.445</v>
       </c>
       <c r="E16">
-        <v>-0.9776</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C17">
-        <v>0.9419999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D17">
         <v>-26.3674</v>
       </c>
       <c r="E17">
-        <v>0.2135</v>
+        <v>0.9277</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>0.976</v>
+        <v>0.919</v>
       </c>
       <c r="D18">
         <v>-26.3674</v>
       </c>
       <c r="E18">
-        <v>2.4935</v>
+        <v>-1.4185</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>0.867</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D19">
         <v>-26.3674</v>
       </c>
       <c r="E19">
-        <v>-1.3472</v>
+        <v>-0.2937</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C20">
-        <v>0.903</v>
+        <v>0.758</v>
       </c>
       <c r="D20">
         <v>-26.3674</v>
       </c>
       <c r="E20">
-        <v>-1.3212</v>
+        <v>-1.0829</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C21">
-        <v>0.989</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D21">
         <v>-28.0327</v>
       </c>
       <c r="E21">
-        <v>0.2924</v>
+        <v>-1.4614</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22">
-        <v>0.96</v>
+        <v>0.916</v>
       </c>
       <c r="D22">
         <v>-28.0327</v>
       </c>
       <c r="E22">
-        <v>-0.33</v>
+        <v>-0.845</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>0.979</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D23">
         <v>-28.0327</v>
       </c>
       <c r="E23">
-        <v>0.0162</v>
+        <v>-0.5183</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C24">
-        <v>0.93</v>
+        <v>0.597</v>
       </c>
       <c r="D24">
         <v>-28.0327</v>
       </c>
       <c r="E24">
-        <v>-1.6034</v>
+        <v>-0.3098</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25">
-        <v>0.8129999999999999</v>
+        <v>0.707</v>
       </c>
       <c r="D25">
-        <v>-29.5016</v>
+        <v>-28.0327</v>
       </c>
       <c r="E25">
-        <v>-0.5495</v>
+        <v>-0.4978</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C26">
-        <v>0.723</v>
+        <v>0.825</v>
       </c>
       <c r="D26">
-        <v>-30.8155</v>
+        <v>-29.5016</v>
       </c>
       <c r="E26">
-        <v>0.5444</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C27">
-        <v>0.984</v>
+        <v>0.663</v>
       </c>
       <c r="D27">
-        <v>-32.0042</v>
+        <v>-29.5016</v>
       </c>
       <c r="E27">
-        <v>0.2829</v>
+        <v>1.2352</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C28">
-        <v>0.8159999999999999</v>
+        <v>0.735</v>
       </c>
       <c r="D28">
-        <v>-32.0042</v>
+        <v>-30.8155</v>
       </c>
       <c r="E28">
-        <v>0.9653</v>
+        <v>0.6456</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C29">
-        <v>0.996</v>
+        <v>0.914</v>
       </c>
       <c r="D29">
-        <v>-34.0875</v>
+        <v>-30.8155</v>
       </c>
       <c r="E29">
-        <v>-0.2538</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C30">
-        <v>0.827</v>
+        <v>0.869</v>
       </c>
       <c r="D30">
-        <v>-35.0117</v>
+        <v>-32.0042</v>
       </c>
       <c r="E30">
-        <v>-0.0796</v>
+        <v>1.0035</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
       <c r="D31">
-        <v>-35.8721</v>
+        <v>-32.0042</v>
       </c>
       <c r="E31">
-        <v>-0.6646</v>
+        <v>0.6009</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32">
-        <v>0.903</v>
+        <v>0.825</v>
       </c>
       <c r="D32">
-        <v>-36.677</v>
+        <v>-32.0042</v>
       </c>
       <c r="E32">
-        <v>-0.9811</v>
+        <v>-2.2365</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0.707</v>
+        <v>0.969</v>
       </c>
       <c r="D33">
-        <v>-37.433</v>
+        <v>-33.0893</v>
       </c>
       <c r="E33">
-        <v>1.5952</v>
+        <v>-1.2555</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C34">
-        <v>0.543</v>
+        <v>0.506</v>
       </c>
       <c r="D34">
-        <v>-38.1458</v>
+        <v>-34.0875</v>
       </c>
       <c r="E34">
-        <v>-0.5993000000000001</v>
+        <v>-0.5306</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C35">
-        <v>0.7</v>
+        <v>0.635</v>
       </c>
       <c r="D35">
-        <v>-38.1458</v>
+        <v>-35.0117</v>
       </c>
       <c r="E35">
-        <v>-0.9467</v>
+        <v>-0.944</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C36">
-        <v>0.9340000000000001</v>
+        <v>0.724</v>
       </c>
       <c r="D36">
-        <v>-38.1458</v>
+        <v>-35.0117</v>
       </c>
       <c r="E36">
-        <v>-0.7059</v>
+        <v>-0.1466</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C37">
-        <v>0.872</v>
+        <v>0.756</v>
       </c>
       <c r="D37">
-        <v>-38.1458</v>
+        <v>-35.8721</v>
       </c>
       <c r="E37">
-        <v>-0.3218</v>
+        <v>0.3176</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3112,166 +3092,166 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <v>0.993</v>
+        <v>0.962</v>
       </c>
       <c r="D38">
-        <v>-38.8201</v>
+        <v>-37.433</v>
       </c>
       <c r="E38">
-        <v>0.2346</v>
+        <v>-1.503</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C39">
-        <v>0.978</v>
+        <v>0.613</v>
       </c>
       <c r="D39">
-        <v>-38.8201</v>
+        <v>-37.433</v>
       </c>
       <c r="E39">
-        <v>-0.2533</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C40">
-        <v>0.967</v>
+        <v>0.733</v>
       </c>
       <c r="D40">
         <v>-38.8201</v>
       </c>
       <c r="E40">
-        <v>-0.8646</v>
+        <v>0.4556</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C41">
-        <v>0.928</v>
+        <v>0.975</v>
       </c>
       <c r="D41">
-        <v>-39.4598</v>
+        <v>-38.8201</v>
       </c>
       <c r="E41">
-        <v>-0.6381</v>
+        <v>-0.5145</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C42">
-        <v>0.846</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D42">
-        <v>-40.0682</v>
+        <v>-38.8201</v>
       </c>
       <c r="E42">
-        <v>1.2103</v>
+        <v>-1.2486</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C43">
-        <v>0.992</v>
+        <v>0.509</v>
       </c>
       <c r="D43">
-        <v>-40.6484</v>
+        <v>-40.0682</v>
       </c>
       <c r="E43">
-        <v>0.0586</v>
+        <v>0.2965</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C44">
-        <v>0.696</v>
+        <v>0.835</v>
       </c>
       <c r="D44">
-        <v>-41.2027</v>
+        <v>-40.0682</v>
       </c>
       <c r="E44">
-        <v>1.1109</v>
+        <v>-0.2286</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C45">
-        <v>0.996</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D45">
-        <v>-42.2426</v>
+        <v>-40.6484</v>
       </c>
       <c r="E45">
-        <v>-0.4372</v>
+        <v>-1.0801</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C46">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="D46">
-        <v>-42.2426</v>
+        <v>-41.2027</v>
       </c>
       <c r="E46">
-        <v>-0.009900000000000001</v>
+        <v>-1.0374</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C47">
-        <v>0.891</v>
+        <v>0.502</v>
       </c>
       <c r="D47">
-        <v>-42.7317</v>
+        <v>-41.2027</v>
       </c>
       <c r="E47">
-        <v>1.4545</v>
+        <v>-0.2292</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3282,455 +3262,455 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="D48">
-        <v>-43.2024</v>
+        <v>-41.2027</v>
       </c>
       <c r="E48">
-        <v>1.8369</v>
+        <v>-1.0338</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C49">
-        <v>0.994</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D49">
-        <v>-43.6559</v>
+        <v>-41.2027</v>
       </c>
       <c r="E49">
-        <v>-0.3515</v>
+        <v>-1.4705</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C50">
-        <v>0.872</v>
+        <v>0.65</v>
       </c>
       <c r="D50">
-        <v>-44.0935</v>
+        <v>-41.7335</v>
       </c>
       <c r="E50">
-        <v>-1.9195</v>
+        <v>-0.2277</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C51">
-        <v>0.963</v>
+        <v>0.951</v>
       </c>
       <c r="D51">
-        <v>-44.0935</v>
+        <v>-42.2426</v>
       </c>
       <c r="E51">
-        <v>-0.8662</v>
+        <v>-0.8263</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C52">
-        <v>0.645</v>
+        <v>0.788</v>
       </c>
       <c r="D52">
-        <v>-44.5163</v>
+        <v>-42.7317</v>
       </c>
       <c r="E52">
-        <v>0.5432</v>
+        <v>-0.6506999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C53">
-        <v>0.66</v>
+        <v>0.679</v>
       </c>
       <c r="D53">
-        <v>-44.9253</v>
+        <v>-42.7317</v>
       </c>
       <c r="E53">
-        <v>-1.5673</v>
+        <v>-0.7985</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C54">
-        <v>0.639</v>
+        <v>0.923</v>
       </c>
       <c r="D54">
-        <v>-45.3212</v>
+        <v>-43.2024</v>
       </c>
       <c r="E54">
-        <v>0.1516</v>
+        <v>0.3848</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C55">
-        <v>0.991</v>
+        <v>0.891</v>
       </c>
       <c r="D55">
-        <v>-45.7049</v>
+        <v>-43.2024</v>
       </c>
       <c r="E55">
-        <v>-1.7996</v>
+        <v>0.4038</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>0.745</v>
+        <v>0.992</v>
       </c>
       <c r="D56">
-        <v>-45.7049</v>
+        <v>-44.0935</v>
       </c>
       <c r="E56">
-        <v>-1.6063</v>
+        <v>-0.2943</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C57">
-        <v>0.995</v>
+        <v>0.572</v>
       </c>
       <c r="D57">
-        <v>-46.0772</v>
+        <v>-45.3212</v>
       </c>
       <c r="E57">
-        <v>-1.1982</v>
+        <v>-0.3375</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>0.843</v>
+        <v>0.987</v>
       </c>
       <c r="D58">
-        <v>-46.4387</v>
+        <v>-45.7049</v>
       </c>
       <c r="E58">
-        <v>0.9071</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59">
-        <v>0.996</v>
+        <v>0.983</v>
       </c>
       <c r="D59">
-        <v>-46.7901</v>
+        <v>-46.0772</v>
       </c>
       <c r="E59">
-        <v>1.1875</v>
+        <v>-0.2097</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C60">
-        <v>0.875</v>
+        <v>0.702</v>
       </c>
       <c r="D60">
-        <v>-46.7901</v>
+        <v>-46.4387</v>
       </c>
       <c r="E60">
-        <v>0.0466</v>
+        <v>-0.5603</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C61">
-        <v>0.9409999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="D61">
-        <v>-47.7883</v>
+        <v>-46.4387</v>
       </c>
       <c r="E61">
-        <v>0.8186</v>
+        <v>0.3724</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C62">
-        <v>0.548</v>
+        <v>0.918</v>
       </c>
       <c r="D62">
-        <v>-48.104</v>
+        <v>-48.7125</v>
       </c>
       <c r="E62">
-        <v>-0.0806</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C63">
-        <v>0.971</v>
+        <v>0.947</v>
       </c>
       <c r="D63">
-        <v>-48.104</v>
+        <v>-50.1152</v>
       </c>
       <c r="E63">
-        <v>-0.0977</v>
+        <v>-1.0371</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="C64">
-        <v>0.614</v>
+        <v>0.919</v>
       </c>
       <c r="D64">
-        <v>-49.0059</v>
+        <v>-51.8466</v>
       </c>
       <c r="E64">
-        <v>0.2081</v>
+        <v>-0.3445</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C65">
-        <v>0.996</v>
+        <v>0.625</v>
       </c>
       <c r="D65">
-        <v>-49.2926</v>
+        <v>-53.3667</v>
       </c>
       <c r="E65">
-        <v>-0.5886</v>
+        <v>0.7682</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C66">
-        <v>0.865</v>
+        <v>0.959</v>
       </c>
       <c r="D66">
-        <v>-49.5729</v>
+        <v>-53.5695</v>
       </c>
       <c r="E66">
-        <v>-0.6631</v>
+        <v>-0.4034</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C67">
-        <v>0.906</v>
+        <v>0.715</v>
       </c>
       <c r="D67">
-        <v>-49.847</v>
+        <v>-53.9654</v>
       </c>
       <c r="E67">
-        <v>1.2245</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C68">
-        <v>0.997</v>
+        <v>0.867</v>
       </c>
       <c r="D68">
-        <v>-50.1152</v>
+        <v>-53.9654</v>
       </c>
       <c r="E68">
-        <v>1.2233</v>
+        <v>0.8856000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C69">
-        <v>0.972</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="D69">
-        <v>-50.3777</v>
+        <v>-53.9654</v>
       </c>
       <c r="E69">
-        <v>0.0757</v>
+        <v>-1.8401</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C70">
-        <v>0.85</v>
+        <v>0.972</v>
       </c>
       <c r="D70">
-        <v>-51.376</v>
+        <v>-54.1588</v>
       </c>
       <c r="E70">
-        <v>-0.9032</v>
+        <v>-0.475</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C71">
-        <v>0.997</v>
+        <v>0.956</v>
       </c>
       <c r="D71">
-        <v>-52.3002</v>
+        <v>-54.3492</v>
       </c>
       <c r="E71">
-        <v>-1.8378</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C72">
-        <v>0.964</v>
+        <v>0.774</v>
       </c>
       <c r="D72">
-        <v>-52.951</v>
+        <v>-54.9035</v>
       </c>
       <c r="E72">
-        <v>0.2835</v>
+        <v>-0.7945</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C73">
-        <v>0.974</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="D73">
-        <v>-52.951</v>
+        <v>-54.9035</v>
       </c>
       <c r="E73">
-        <v>-0.0655</v>
+        <v>-0.611</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C74">
-        <v>0.994</v>
+        <v>0.985</v>
       </c>
       <c r="D74">
-        <v>-53.5695</v>
+        <v>-55.083</v>
       </c>
       <c r="E74">
-        <v>1.4328</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3741,506 +3721,489 @@
         <v>52</v>
       </c>
       <c r="C75">
-        <v>0.916</v>
+        <v>0.845</v>
       </c>
       <c r="D75">
-        <v>-53.5695</v>
+        <v>-55.083</v>
       </c>
       <c r="E75">
-        <v>-0.2667</v>
+        <v>0.8586</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C76">
-        <v>0.763</v>
+        <v>0.55</v>
       </c>
       <c r="D76">
-        <v>-53.9654</v>
+        <v>-55.083</v>
       </c>
       <c r="E76">
-        <v>-0.8241000000000001</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C77">
-        <v>0.517</v>
+        <v>0.724</v>
       </c>
       <c r="D77">
-        <v>-54.3492</v>
+        <v>-55.2599</v>
       </c>
       <c r="E77">
-        <v>-0.3698</v>
+        <v>-0.2712</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C78">
-        <v>0.876</v>
+        <v>0.862</v>
       </c>
       <c r="D78">
-        <v>-54.3492</v>
+        <v>-55.9434</v>
       </c>
       <c r="E78">
-        <v>-1.2184</v>
+        <v>0.2081</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C79">
-        <v>0.996</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="D79">
-        <v>-54.9035</v>
+        <v>-56.5914</v>
       </c>
       <c r="E79">
-        <v>1.2657</v>
+        <v>-0.6143</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C80">
-        <v>0.976</v>
+        <v>0.875</v>
       </c>
       <c r="D80">
-        <v>-55.6063</v>
+        <v>-60.2577</v>
       </c>
       <c r="E80">
-        <v>-0.579</v>
+        <v>-0.3753</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C81">
-        <v>0.707</v>
+        <v>0.92</v>
       </c>
       <c r="D81">
-        <v>-55.9434</v>
+        <v>-61.0553</v>
       </c>
       <c r="E81">
-        <v>-0.8386</v>
+        <v>0.0219</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C82">
-        <v>0.631</v>
+        <v>0.716</v>
       </c>
       <c r="D82">
-        <v>-56.5914</v>
+        <v>-61.274</v>
       </c>
       <c r="E82">
-        <v>-0.1728</v>
+        <v>-0.3676</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C83">
-        <v>0.982</v>
+        <v>0.901</v>
       </c>
       <c r="D83">
-        <v>-57.9369</v>
+        <v>-61.4891</v>
       </c>
       <c r="E83">
-        <v>0.028</v>
+        <v>1.3843</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C84">
-        <v>0.861</v>
+        <v>0.575</v>
       </c>
       <c r="D84">
-        <v>-62.9934</v>
+        <v>-62.1128</v>
       </c>
       <c r="E84">
-        <v>0.06809999999999999</v>
+        <v>0.3369</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C85">
-        <v>0.829</v>
+        <v>0.955</v>
       </c>
       <c r="D85">
-        <v>-63.0875</v>
+        <v>-62.8986</v>
       </c>
       <c r="E85">
-        <v>0.5179</v>
+        <v>-0.7828000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C86">
-        <v>0.87</v>
+        <v>0.929</v>
       </c>
       <c r="D86">
-        <v>-63.9916</v>
+        <v>-63.6378</v>
       </c>
       <c r="E86">
-        <v>0.3174</v>
+        <v>-1.3161</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C87">
-        <v>0.527</v>
+        <v>0.66</v>
       </c>
       <c r="D87">
-        <v>-64.1648</v>
+        <v>-63.9041</v>
       </c>
       <c r="E87">
-        <v>0.3316</v>
+        <v>0.2196</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C88">
-        <v>0.947</v>
+        <v>0.977</v>
       </c>
       <c r="D88">
-        <v>-67.6662</v>
+        <v>-63.9916</v>
       </c>
       <c r="E88">
-        <v>-0.4722</v>
+        <v>0.5467</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C89">
-        <v>0.982</v>
+        <v>0.835</v>
       </c>
       <c r="D89">
-        <v>-68.11279999999999</v>
+        <v>-64.07850000000001</v>
       </c>
       <c r="E89">
-        <v>0.9919</v>
+        <v>-0.1529</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="C90">
-        <v>0.634</v>
+        <v>0.994</v>
       </c>
       <c r="D90">
-        <v>-68.361</v>
+        <v>-64.5042</v>
       </c>
       <c r="E90">
-        <v>0.9369</v>
+        <v>0.5238</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C91">
-        <v>0.9399999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="D91">
-        <v>-68.42230000000001</v>
+        <v>-66.001</v>
       </c>
       <c r="E91">
-        <v>-0.0221</v>
+        <v>-0.2132</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C92">
-        <v>0.585</v>
+        <v>0.53</v>
       </c>
       <c r="D92">
-        <v>-68.42230000000001</v>
+        <v>-66.1485</v>
       </c>
       <c r="E92">
-        <v>-0.06569999999999999</v>
+        <v>-0.1955</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C93">
-        <v>0.898</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="D93">
-        <v>-68.54389999999999</v>
+        <v>-66.72199999999999</v>
       </c>
       <c r="E93">
-        <v>-0.9188</v>
+        <v>-1.3652</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C94">
-        <v>0.995</v>
+        <v>0.579</v>
       </c>
       <c r="D94">
-        <v>-68.54389999999999</v>
+        <v>-66.8614</v>
       </c>
       <c r="E94">
-        <v>-0.5306999999999999</v>
+        <v>-1.5882</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C95">
-        <v>0.892</v>
+        <v>0.731</v>
       </c>
       <c r="D95">
-        <v>-68.60429999999999</v>
+        <v>-69.0772</v>
       </c>
       <c r="E95">
-        <v>-0.3501</v>
+        <v>0.1355</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C96">
-        <v>0.964</v>
+        <v>0.857</v>
       </c>
       <c r="D96">
-        <v>-68.60429999999999</v>
+        <v>-69.13509999999999</v>
       </c>
       <c r="E96">
-        <v>-0.3456</v>
+        <v>0.1716</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C97">
-        <v>0.874</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="D97">
-        <v>-68.60429999999999</v>
+        <v>-69.13509999999999</v>
       </c>
       <c r="E97">
-        <v>0.3975</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="C98">
-        <v>0.664</v>
+        <v>0.962</v>
       </c>
       <c r="D98">
-        <v>-68.60429999999999</v>
+        <v>-69.3639</v>
       </c>
       <c r="E98">
-        <v>-2.3351</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C99">
-        <v>0.853</v>
+        <v>0.945</v>
       </c>
       <c r="D99">
-        <v>-68.60429999999999</v>
+        <v>-69.3639</v>
       </c>
       <c r="E99">
-        <v>-0.7386</v>
+        <v>-1.2134</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <v>0.995</v>
+        <v>0.988</v>
       </c>
       <c r="D100">
-        <v>-68.7243</v>
+        <v>-69.4205</v>
       </c>
       <c r="E100">
-        <v>0.4682</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C101">
-        <v>0.996</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="D101">
-        <v>-68.843</v>
+        <v>-69.4205</v>
       </c>
       <c r="E101">
-        <v>-0.0369</v>
+        <v>-1.0363</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C102">
-        <v>0.918</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D102">
-        <v>-69.0772</v>
+        <v>-69.6995</v>
       </c>
       <c r="E102">
-        <v>-1.8216</v>
+        <v>-0.5238</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C103">
-        <v>0.765</v>
+        <v>0.88</v>
       </c>
       <c r="D103">
-        <v>-69.13509999999999</v>
+        <v>-70.29219999999999</v>
       </c>
       <c r="E103">
-        <v>1.128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104">
-        <v>0.997</v>
-      </c>
-      <c r="D104">
-        <v>-69.30710000000001</v>
-      </c>
-      <c r="E104">
-        <v>0.9801</v>
+        <v>-2.4116</v>
       </c>
     </row>
   </sheetData>
@@ -4250,7 +4213,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4272,257 +4235,257 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>0.976</v>
+        <v>0.901</v>
       </c>
       <c r="D2">
-        <v>-26.3674</v>
+        <v>-61.4891</v>
       </c>
       <c r="E2">
-        <v>2.4935</v>
+        <v>1.3843</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C3">
-        <v>0.997</v>
+        <v>0.663</v>
       </c>
       <c r="D3">
-        <v>-43.2024</v>
+        <v>-29.5016</v>
       </c>
       <c r="E3">
-        <v>1.8369</v>
+        <v>1.2352</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>0.707</v>
+        <v>0.869</v>
       </c>
       <c r="D4">
-        <v>-37.433</v>
+        <v>-32.0042</v>
       </c>
       <c r="E4">
-        <v>1.5952</v>
+        <v>1.0035</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>0.891</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D5">
-        <v>-42.7317</v>
+        <v>-26.3674</v>
       </c>
       <c r="E5">
-        <v>1.4545</v>
+        <v>0.9277</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="C6">
-        <v>0.994</v>
+        <v>0.533</v>
       </c>
       <c r="D6">
-        <v>-53.5695</v>
+        <v>-15.8008</v>
       </c>
       <c r="E6">
-        <v>1.4328</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C7">
-        <v>0.996</v>
+        <v>0.867</v>
       </c>
       <c r="D7">
-        <v>-54.9035</v>
+        <v>-53.9654</v>
       </c>
       <c r="E7">
-        <v>1.2657</v>
+        <v>0.8856000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>0.906</v>
+        <v>0.845</v>
       </c>
       <c r="D8">
-        <v>-49.847</v>
+        <v>-55.083</v>
       </c>
       <c r="E8">
-        <v>1.2245</v>
+        <v>0.8586</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C9">
-        <v>0.997</v>
+        <v>0.625</v>
       </c>
       <c r="D9">
-        <v>-50.1152</v>
+        <v>-53.3667</v>
       </c>
       <c r="E9">
-        <v>1.2233</v>
+        <v>0.7682</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10">
-        <v>0.846</v>
+        <v>0.735</v>
       </c>
       <c r="D10">
-        <v>-40.0682</v>
+        <v>-30.8155</v>
       </c>
       <c r="E10">
-        <v>1.2103</v>
+        <v>0.6456</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>0.996</v>
+        <v>0.825</v>
       </c>
       <c r="D11">
-        <v>-46.7901</v>
+        <v>-29.5016</v>
       </c>
       <c r="E11">
-        <v>1.1875</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.765</v>
+        <v>0.997</v>
       </c>
       <c r="D12">
-        <v>-69.13509999999999</v>
+        <v>-32.0042</v>
       </c>
       <c r="E12">
-        <v>1.128</v>
+        <v>0.6009</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>0.696</v>
+        <v>0.977</v>
       </c>
       <c r="D13">
-        <v>-41.2027</v>
+        <v>-63.9916</v>
       </c>
       <c r="E13">
-        <v>1.1109</v>
+        <v>0.5467</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>0.982</v>
+        <v>0.994</v>
       </c>
       <c r="D14">
-        <v>-68.11279999999999</v>
+        <v>-64.5042</v>
       </c>
       <c r="E14">
-        <v>0.9919</v>
+        <v>0.5238</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C15">
-        <v>0.997</v>
+        <v>0.733</v>
       </c>
       <c r="D15">
-        <v>-69.30710000000001</v>
+        <v>-38.8201</v>
       </c>
       <c r="E15">
-        <v>0.9801</v>
+        <v>0.4556</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>0.8159999999999999</v>
+        <v>0.983</v>
       </c>
       <c r="D16">
-        <v>-32.0042</v>
+        <v>-24.445</v>
       </c>
       <c r="E16">
-        <v>0.9653</v>
+        <v>0.4338</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4533,642 +4496,642 @@
         <v>91</v>
       </c>
       <c r="C17">
-        <v>0.634</v>
+        <v>0.613</v>
       </c>
       <c r="D17">
-        <v>-68.361</v>
+        <v>-37.433</v>
       </c>
       <c r="E17">
-        <v>0.9369</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>0.843</v>
+        <v>0.891</v>
       </c>
       <c r="D18">
-        <v>-46.4387</v>
+        <v>-43.2024</v>
       </c>
       <c r="E18">
-        <v>0.9071</v>
+        <v>0.4038</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>0.9409999999999999</v>
+        <v>0.923</v>
       </c>
       <c r="D19">
-        <v>-47.7883</v>
+        <v>-43.2024</v>
       </c>
       <c r="E19">
-        <v>0.8186</v>
+        <v>0.3848</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>0.613</v>
+        <v>0.93</v>
       </c>
       <c r="D20">
-        <v>-15.8008</v>
+        <v>-46.4387</v>
       </c>
       <c r="E20">
-        <v>0.7862</v>
+        <v>0.3724</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C21">
-        <v>0.723</v>
+        <v>0.916</v>
       </c>
       <c r="D21">
-        <v>-30.8155</v>
+        <v>-22.1713</v>
       </c>
       <c r="E21">
-        <v>0.5444</v>
+        <v>0.3549</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C22">
-        <v>0.645</v>
+        <v>0.575</v>
       </c>
       <c r="D22">
-        <v>-44.5163</v>
+        <v>-62.1128</v>
       </c>
       <c r="E22">
-        <v>0.5432</v>
+        <v>0.3369</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C23">
-        <v>0.829</v>
+        <v>0.756</v>
       </c>
       <c r="D23">
-        <v>-63.0875</v>
+        <v>-35.8721</v>
       </c>
       <c r="E23">
-        <v>0.5179</v>
+        <v>0.3176</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="C24">
-        <v>0.995</v>
+        <v>0.509</v>
       </c>
       <c r="D24">
-        <v>-68.7243</v>
+        <v>-40.0682</v>
       </c>
       <c r="E24">
-        <v>0.4682</v>
+        <v>0.2965</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C25">
-        <v>0.639</v>
+        <v>0.66</v>
       </c>
       <c r="D25">
-        <v>-19.3885</v>
+        <v>-63.9041</v>
       </c>
       <c r="E25">
-        <v>0.4113</v>
+        <v>0.2196</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>0.874</v>
+        <v>0.862</v>
       </c>
       <c r="D26">
-        <v>-68.60429999999999</v>
+        <v>-55.9434</v>
       </c>
       <c r="E26">
-        <v>0.3975</v>
+        <v>0.2081</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>0.527</v>
+        <v>0.857</v>
       </c>
       <c r="D27">
-        <v>-64.1648</v>
+        <v>-69.13509999999999</v>
       </c>
       <c r="E27">
-        <v>0.3316</v>
+        <v>0.1716</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C28">
-        <v>0.87</v>
+        <v>0.731</v>
       </c>
       <c r="D28">
-        <v>-63.9916</v>
+        <v>-69.0772</v>
       </c>
       <c r="E28">
-        <v>0.3174</v>
+        <v>0.1355</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C29">
-        <v>0.989</v>
+        <v>0.55</v>
       </c>
       <c r="D29">
-        <v>-28.0327</v>
+        <v>-55.083</v>
       </c>
       <c r="E29">
-        <v>0.2924</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>0.964</v>
+        <v>0.988</v>
       </c>
       <c r="D30">
-        <v>-52.951</v>
+        <v>-69.4205</v>
       </c>
       <c r="E30">
-        <v>0.2835</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>0.984</v>
+        <v>0.918</v>
       </c>
       <c r="D31">
-        <v>-32.0042</v>
+        <v>-48.7125</v>
       </c>
       <c r="E31">
-        <v>0.2829</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>0.644</v>
+        <v>0.985</v>
       </c>
       <c r="D32">
-        <v>-19.3885</v>
+        <v>-55.083</v>
       </c>
       <c r="E32">
-        <v>0.2708</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>0.993</v>
+        <v>0.988</v>
       </c>
       <c r="D33">
-        <v>-38.8201</v>
+        <v>-24.445</v>
       </c>
       <c r="E33">
-        <v>0.2346</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C34">
-        <v>0.9419999999999999</v>
+        <v>0.956</v>
       </c>
       <c r="D34">
-        <v>-26.3674</v>
+        <v>-54.3492</v>
       </c>
       <c r="E34">
-        <v>0.2135</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>0.614</v>
+        <v>0.987</v>
       </c>
       <c r="D35">
-        <v>-49.0059</v>
+        <v>-45.7049</v>
       </c>
       <c r="E35">
-        <v>0.2081</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C36">
-        <v>0.639</v>
+        <v>0.92</v>
       </c>
       <c r="D36">
-        <v>-45.3212</v>
+        <v>-61.0553</v>
       </c>
       <c r="E36">
-        <v>0.1516</v>
+        <v>0.0219</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C37">
-        <v>0.972</v>
+        <v>0.914</v>
       </c>
       <c r="D37">
-        <v>-50.3777</v>
+        <v>-30.8155</v>
       </c>
       <c r="E37">
-        <v>0.0757</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>0.861</v>
+        <v>0.962</v>
       </c>
       <c r="D38">
-        <v>-62.9934</v>
+        <v>-69.3639</v>
       </c>
       <c r="E38">
-        <v>0.06809999999999999</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C39">
-        <v>0.992</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="D39">
-        <v>-40.6484</v>
+        <v>-15.8008</v>
       </c>
       <c r="E39">
-        <v>0.0586</v>
+        <v>-0.06660000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C40">
-        <v>0.875</v>
+        <v>0.715</v>
       </c>
       <c r="D40">
-        <v>-46.7901</v>
+        <v>-53.9654</v>
       </c>
       <c r="E40">
-        <v>0.0466</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>0.995</v>
+        <v>0.793</v>
       </c>
       <c r="D41">
-        <v>-22.1713</v>
+        <v>-15.8008</v>
       </c>
       <c r="E41">
-        <v>0.0358</v>
+        <v>-0.1355</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C42">
-        <v>0.982</v>
+        <v>0.724</v>
       </c>
       <c r="D42">
-        <v>-57.9369</v>
+        <v>-35.0117</v>
       </c>
       <c r="E42">
-        <v>0.028</v>
+        <v>-0.1466</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C43">
-        <v>0.979</v>
+        <v>0.835</v>
       </c>
       <c r="D43">
-        <v>-28.0327</v>
+        <v>-64.07850000000001</v>
       </c>
       <c r="E43">
-        <v>0.0162</v>
+        <v>-0.1529</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C44">
-        <v>0.54</v>
+        <v>0.966</v>
       </c>
       <c r="D44">
-        <v>-42.2426</v>
+        <v>-19.3885</v>
       </c>
       <c r="E44">
-        <v>-0.009900000000000001</v>
+        <v>-0.1686</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C45">
-        <v>0.9399999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="D45">
-        <v>-68.42230000000001</v>
+        <v>-66.1485</v>
       </c>
       <c r="E45">
-        <v>-0.0221</v>
+        <v>-0.1955</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C46">
-        <v>0.5639999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="D46">
-        <v>-15.8008</v>
+        <v>-22.1713</v>
       </c>
       <c r="E46">
-        <v>-0.0257</v>
+        <v>-0.1986</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>0.996</v>
+        <v>0.983</v>
       </c>
       <c r="D47">
-        <v>-68.843</v>
+        <v>-46.0772</v>
       </c>
       <c r="E47">
-        <v>-0.0369</v>
+        <v>-0.2097</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C48">
-        <v>0.609</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="D48">
-        <v>-22.1713</v>
+        <v>-66.001</v>
       </c>
       <c r="E48">
-        <v>-0.0482</v>
+        <v>-0.2132</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C49">
-        <v>0.974</v>
+        <v>0.65</v>
       </c>
       <c r="D49">
-        <v>-52.951</v>
+        <v>-41.7335</v>
       </c>
       <c r="E49">
-        <v>-0.0655</v>
+        <v>-0.2277</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C50">
-        <v>0.585</v>
+        <v>0.835</v>
       </c>
       <c r="D50">
-        <v>-68.42230000000001</v>
+        <v>-40.0682</v>
       </c>
       <c r="E50">
-        <v>-0.06569999999999999</v>
+        <v>-0.2286</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C51">
-        <v>0.827</v>
+        <v>0.502</v>
       </c>
       <c r="D51">
-        <v>-35.0117</v>
+        <v>-41.2027</v>
       </c>
       <c r="E51">
-        <v>-0.0796</v>
+        <v>-0.2292</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C52">
-        <v>0.548</v>
+        <v>0.724</v>
       </c>
       <c r="D52">
-        <v>-48.104</v>
+        <v>-55.2599</v>
       </c>
       <c r="E52">
-        <v>-0.0806</v>
+        <v>-0.2712</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C53">
-        <v>0.971</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D53">
-        <v>-48.104</v>
+        <v>-26.3674</v>
       </c>
       <c r="E53">
-        <v>-0.0977</v>
+        <v>-0.2937</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C54">
-        <v>0.966</v>
+        <v>0.992</v>
       </c>
       <c r="D54">
-        <v>-22.1713</v>
+        <v>-44.0935</v>
       </c>
       <c r="E54">
-        <v>-0.0987</v>
+        <v>-0.2943</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -5179,251 +5142,251 @@
         <v>92</v>
       </c>
       <c r="C55">
-        <v>0.631</v>
+        <v>0.597</v>
       </c>
       <c r="D55">
-        <v>-56.5914</v>
+        <v>-28.0327</v>
       </c>
       <c r="E55">
-        <v>-0.1728</v>
+        <v>-0.3098</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C56">
-        <v>0.978</v>
+        <v>0.572</v>
       </c>
       <c r="D56">
-        <v>-38.8201</v>
+        <v>-45.3212</v>
       </c>
       <c r="E56">
-        <v>-0.2533</v>
+        <v>-0.3375</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C57">
-        <v>0.996</v>
+        <v>0.919</v>
       </c>
       <c r="D57">
-        <v>-34.0875</v>
+        <v>-51.8466</v>
       </c>
       <c r="E57">
-        <v>-0.2538</v>
+        <v>-0.3445</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C58">
-        <v>0.916</v>
+        <v>0.716</v>
       </c>
       <c r="D58">
-        <v>-53.5695</v>
+        <v>-61.274</v>
       </c>
       <c r="E58">
-        <v>-0.2667</v>
+        <v>-0.3676</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C59">
-        <v>0.54</v>
+        <v>0.875</v>
       </c>
       <c r="D59">
-        <v>-10.7442</v>
+        <v>-60.2577</v>
       </c>
       <c r="E59">
-        <v>-0.3195</v>
+        <v>-0.3753</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C60">
-        <v>0.872</v>
+        <v>0.959</v>
       </c>
       <c r="D60">
-        <v>-38.1458</v>
+        <v>-53.5695</v>
       </c>
       <c r="E60">
-        <v>-0.3218</v>
+        <v>-0.4034</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C61">
-        <v>0.96</v>
+        <v>0.666</v>
       </c>
       <c r="D61">
-        <v>-28.0327</v>
+        <v>-15.8008</v>
       </c>
       <c r="E61">
-        <v>-0.33</v>
+        <v>-0.4212</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C62">
-        <v>0.964</v>
+        <v>0.972</v>
       </c>
       <c r="D62">
-        <v>-68.60429999999999</v>
+        <v>-54.1588</v>
       </c>
       <c r="E62">
-        <v>-0.3456</v>
+        <v>-0.475</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C63">
-        <v>0.892</v>
+        <v>0.707</v>
       </c>
       <c r="D63">
-        <v>-68.60429999999999</v>
+        <v>-28.0327</v>
       </c>
       <c r="E63">
-        <v>-0.3501</v>
+        <v>-0.4978</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
         <v>15</v>
       </c>
-      <c r="B64" t="s">
-        <v>19</v>
-      </c>
       <c r="C64">
-        <v>0.994</v>
+        <v>0.975</v>
       </c>
       <c r="D64">
-        <v>-43.6559</v>
+        <v>-38.8201</v>
       </c>
       <c r="E64">
-        <v>-0.3515</v>
+        <v>-0.5145</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="C65">
-        <v>0.517</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D65">
-        <v>-54.3492</v>
+        <v>-28.0327</v>
       </c>
       <c r="E65">
-        <v>-0.3698</v>
+        <v>-0.5183</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="C66">
-        <v>0.996</v>
+        <v>0.576</v>
       </c>
       <c r="D66">
-        <v>-42.2426</v>
+        <v>-10.7442</v>
       </c>
       <c r="E66">
-        <v>-0.4372</v>
+        <v>-0.5233</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C67">
-        <v>0.967</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D67">
-        <v>-22.1713</v>
+        <v>-69.6995</v>
       </c>
       <c r="E67">
-        <v>-0.4393</v>
+        <v>-0.5238</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="C68">
-        <v>0.947</v>
+        <v>0.506</v>
       </c>
       <c r="D68">
-        <v>-67.6662</v>
+        <v>-34.0875</v>
       </c>
       <c r="E68">
-        <v>-0.4722</v>
+        <v>-0.5306</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="C69">
-        <v>0.995</v>
+        <v>0.675</v>
       </c>
       <c r="D69">
-        <v>-68.54389999999999</v>
+        <v>-22.1713</v>
       </c>
       <c r="E69">
-        <v>-0.5306999999999999</v>
+        <v>-0.5446</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5434,591 +5397,574 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>0.8129999999999999</v>
+        <v>0.702</v>
       </c>
       <c r="D70">
-        <v>-29.5016</v>
+        <v>-46.4387</v>
       </c>
       <c r="E70">
-        <v>-0.5495</v>
+        <v>-0.5603</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C71">
-        <v>0.976</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="D71">
-        <v>-55.6063</v>
+        <v>-54.9035</v>
       </c>
       <c r="E71">
-        <v>-0.579</v>
+        <v>-0.611</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="C72">
-        <v>0.996</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="D72">
-        <v>-49.2926</v>
+        <v>-56.5914</v>
       </c>
       <c r="E72">
-        <v>-0.5886</v>
+        <v>-0.6143</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C73">
-        <v>0.543</v>
+        <v>0.788</v>
       </c>
       <c r="D73">
-        <v>-38.1458</v>
+        <v>-42.7317</v>
       </c>
       <c r="E73">
-        <v>-0.5993000000000001</v>
+        <v>-0.6506999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C74">
-        <v>0.928</v>
+        <v>0.623</v>
       </c>
       <c r="D74">
-        <v>-39.4598</v>
+        <v>-15.8008</v>
       </c>
       <c r="E74">
-        <v>-0.6381</v>
+        <v>-0.6665</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C75">
-        <v>0.865</v>
+        <v>0.955</v>
       </c>
       <c r="D75">
-        <v>-49.5729</v>
+        <v>-62.8986</v>
       </c>
       <c r="E75">
-        <v>-0.6631</v>
+        <v>-0.7828000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C76">
-        <v>0.99</v>
+        <v>0.774</v>
       </c>
       <c r="D76">
-        <v>-35.8721</v>
+        <v>-54.9035</v>
       </c>
       <c r="E76">
-        <v>-0.6646</v>
+        <v>-0.7945</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C77">
-        <v>0.9340000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="D77">
-        <v>-38.1458</v>
+        <v>-42.7317</v>
       </c>
       <c r="E77">
-        <v>-0.7059</v>
+        <v>-0.7985</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C78">
-        <v>0.853</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="D78">
-        <v>-68.60429999999999</v>
+        <v>-69.13509999999999</v>
       </c>
       <c r="E78">
-        <v>-0.7386</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C79">
-        <v>0.763</v>
+        <v>0.95</v>
       </c>
       <c r="D79">
-        <v>-53.9654</v>
+        <v>-22.1713</v>
       </c>
       <c r="E79">
-        <v>-0.8241000000000001</v>
+        <v>-0.8028</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C80">
-        <v>0.707</v>
+        <v>0.951</v>
       </c>
       <c r="D80">
-        <v>-55.9434</v>
+        <v>-42.2426</v>
       </c>
       <c r="E80">
-        <v>-0.8386</v>
+        <v>-0.8263</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C81">
-        <v>0.967</v>
+        <v>0.916</v>
       </c>
       <c r="D81">
-        <v>-38.8201</v>
+        <v>-28.0327</v>
       </c>
       <c r="E81">
-        <v>-0.8646</v>
+        <v>-0.845</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C82">
-        <v>0.963</v>
+        <v>0.635</v>
       </c>
       <c r="D82">
-        <v>-44.0935</v>
+        <v>-35.0117</v>
       </c>
       <c r="E82">
-        <v>-0.8662</v>
+        <v>-0.944</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C83">
-        <v>0.85</v>
+        <v>0.989</v>
       </c>
       <c r="D83">
-        <v>-51.376</v>
+        <v>-41.2027</v>
       </c>
       <c r="E83">
-        <v>-0.9032</v>
+        <v>-1.0338</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C84">
-        <v>0.898</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="D84">
-        <v>-68.54389999999999</v>
+        <v>-69.4205</v>
       </c>
       <c r="E84">
-        <v>-0.9188</v>
+        <v>-1.0363</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C85">
-        <v>0.7</v>
+        <v>0.947</v>
       </c>
       <c r="D85">
-        <v>-38.1458</v>
+        <v>-50.1152</v>
       </c>
       <c r="E85">
-        <v>-0.9467</v>
+        <v>-1.0371</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C86">
-        <v>0.5590000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="D86">
-        <v>-22.1713</v>
+        <v>-41.2027</v>
       </c>
       <c r="E86">
-        <v>-0.9776</v>
+        <v>-1.0374</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="C87">
-        <v>0.99</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D87">
-        <v>-22.1713</v>
+        <v>-40.6484</v>
       </c>
       <c r="E87">
-        <v>-0.9806</v>
+        <v>-1.0801</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C88">
-        <v>0.903</v>
+        <v>0.758</v>
       </c>
       <c r="D88">
-        <v>-36.677</v>
+        <v>-26.3674</v>
       </c>
       <c r="E88">
-        <v>-0.9811</v>
+        <v>-1.0829</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C89">
-        <v>0.95</v>
+        <v>0.945</v>
       </c>
       <c r="D89">
-        <v>-19.3885</v>
+        <v>-69.3639</v>
       </c>
       <c r="E89">
-        <v>-1.1103</v>
+        <v>-1.2134</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C90">
-        <v>0.995</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D90">
-        <v>-46.0772</v>
+        <v>-38.8201</v>
       </c>
       <c r="E90">
-        <v>-1.1982</v>
+        <v>-1.2486</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C91">
-        <v>0.876</v>
+        <v>0.969</v>
       </c>
       <c r="D91">
-        <v>-54.3492</v>
+        <v>-33.0893</v>
       </c>
       <c r="E91">
-        <v>-1.2184</v>
+        <v>-1.2555</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C92">
-        <v>0.903</v>
+        <v>0.929</v>
       </c>
       <c r="D92">
-        <v>-26.3674</v>
+        <v>-63.6378</v>
       </c>
       <c r="E92">
-        <v>-1.3212</v>
+        <v>-1.3161</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C93">
-        <v>0.867</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="D93">
-        <v>-26.3674</v>
+        <v>-66.72199999999999</v>
       </c>
       <c r="E93">
-        <v>-1.3472</v>
+        <v>-1.3652</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C94">
-        <v>0.761</v>
+        <v>0.919</v>
       </c>
       <c r="D94">
-        <v>-15.8008</v>
+        <v>-26.3674</v>
       </c>
       <c r="E94">
-        <v>-1.3759</v>
+        <v>-1.4185</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C95">
-        <v>0.627</v>
+        <v>0.766</v>
       </c>
       <c r="D95">
-        <v>-19.3885</v>
+        <v>-15.8008</v>
       </c>
       <c r="E95">
-        <v>-1.5308</v>
+        <v>-1.4394</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C96">
-        <v>0.66</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D96">
-        <v>-44.9253</v>
+        <v>-28.0327</v>
       </c>
       <c r="E96">
-        <v>-1.5673</v>
+        <v>-1.4614</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C97">
-        <v>0.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D97">
-        <v>-28.0327</v>
+        <v>-41.2027</v>
       </c>
       <c r="E97">
-        <v>-1.6034</v>
+        <v>-1.4705</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C98">
-        <v>0.745</v>
+        <v>0.962</v>
       </c>
       <c r="D98">
-        <v>-45.7049</v>
+        <v>-37.433</v>
       </c>
       <c r="E98">
-        <v>-1.6063</v>
+        <v>-1.503</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C99">
-        <v>0.991</v>
+        <v>0.579</v>
       </c>
       <c r="D99">
-        <v>-45.7049</v>
+        <v>-66.8614</v>
       </c>
       <c r="E99">
-        <v>-1.7996</v>
+        <v>-1.5882</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C100">
-        <v>0.918</v>
+        <v>0.926</v>
       </c>
       <c r="D100">
-        <v>-69.0772</v>
+        <v>-19.3885</v>
       </c>
       <c r="E100">
-        <v>-1.8216</v>
+        <v>-1.6755</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C101">
-        <v>0.997</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="D101">
-        <v>-52.3002</v>
+        <v>-53.9654</v>
       </c>
       <c r="E101">
-        <v>-1.8378</v>
+        <v>-1.8401</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C102">
-        <v>0.518</v>
+        <v>0.825</v>
       </c>
       <c r="D102">
-        <v>-15.8008</v>
+        <v>-32.0042</v>
       </c>
       <c r="E102">
-        <v>-1.8738</v>
+        <v>-2.2365</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C103">
-        <v>0.872</v>
+        <v>0.88</v>
       </c>
       <c r="D103">
-        <v>-44.0935</v>
+        <v>-70.29219999999999</v>
       </c>
       <c r="E103">
-        <v>-1.9195</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1">
-        <v>81</v>
-      </c>
-      <c r="B104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C104">
-        <v>0.664</v>
-      </c>
-      <c r="D104">
-        <v>-68.60429999999999</v>
-      </c>
-      <c r="E104">
-        <v>-2.3351</v>
+        <v>-2.4116</v>
       </c>
     </row>
   </sheetData>
